--- a/po.xlsx
+++ b/po.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8088B95-D0DD-415A-B9E2-1A3C75261AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC09B1-8AE2-49B2-A1FA-8CD83EA3186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Update" sheetId="16" r:id="rId6"/>
     <sheet name="Data" sheetId="17" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>Log 8</t>
   </si>
@@ -1580,7 +1577,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1778,49 +1775,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1845,28 +1815,43 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1876,25 +1861,74 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1912,48 +1946,9 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2222,660 +2217,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="ProjectBudget"/>
-      <sheetName val="ProjectCodes"/>
-      <sheetName val="Contacts"/>
-      <sheetName val="Equipment"/>
-      <sheetName val="Craft"/>
-      <sheetName val="Lists"/>
-      <sheetName val="Input1"/>
-      <sheetName val="Input2"/>
-      <sheetName val="CustomInput"/>
-      <sheetName val="View_Print1"/>
-      <sheetName val="Log1"/>
-      <sheetName val="Update1"/>
-      <sheetName val="Data1"/>
-      <sheetName val="Summary"/>
-      <sheetName val="DIV_01Input"/>
-      <sheetName val="SEC_013000"/>
-      <sheetName val="DIV_01View_Print"/>
-      <sheetName val="DIV_01Log"/>
-      <sheetName val="DIV_01Update"/>
-      <sheetName val="DIV_01Data"/>
-      <sheetName val="SEC_014000"/>
-      <sheetName val="SEC_015000"/>
-      <sheetName val="SEC_016000"/>
-      <sheetName val="SEC_017000"/>
-      <sheetName val="SEC_018000"/>
-      <sheetName val="SEC_019000"/>
-      <sheetName val="DIV_02Input"/>
-      <sheetName val="DIV_02View_Print"/>
-      <sheetName val="DIV_02Log"/>
-      <sheetName val="DIV_02Update"/>
-      <sheetName val="DIV_02Data"/>
-      <sheetName val="SEC_022000"/>
-      <sheetName val="SEC_023000"/>
-      <sheetName val="SEC_024000"/>
-      <sheetName val="SEC_025000"/>
-      <sheetName val="SEC_026000"/>
-      <sheetName val="SEC_027000"/>
-      <sheetName val="SEC_028000"/>
-      <sheetName val="DIV_03Input"/>
-      <sheetName val="DIV_03View_Print"/>
-      <sheetName val="DIV_03Log"/>
-      <sheetName val="DIV_03Update"/>
-      <sheetName val="DIV_03Data"/>
-      <sheetName val="SEC_031000"/>
-      <sheetName val="SEC_032000"/>
-      <sheetName val="SEC_033000"/>
-      <sheetName val="SEC_034000"/>
-      <sheetName val="SEC_035000"/>
-      <sheetName val="SEC_036000"/>
-      <sheetName val="SEC_037000"/>
-      <sheetName val="SEC_038000"/>
-      <sheetName val="DIV_04Input"/>
-      <sheetName val="DIV_04View_Print"/>
-      <sheetName val="DIV_04Log"/>
-      <sheetName val="DIV_04Update"/>
-      <sheetName val="DIV_04Data"/>
-      <sheetName val="SEC_042000"/>
-      <sheetName val="SEC_044000"/>
-      <sheetName val="SEC_045000"/>
-      <sheetName val="SEC_046000"/>
-      <sheetName val="SEC_047000"/>
-      <sheetName val="DIV_05Input"/>
-      <sheetName val="DIV_05View_Print"/>
-      <sheetName val="DIV_05Log"/>
-      <sheetName val="DIV_05Update"/>
-      <sheetName val="DIV_05Data"/>
-      <sheetName val="SEC_051000"/>
-      <sheetName val="SEC_052000"/>
-      <sheetName val="SEC_053000"/>
-      <sheetName val="SEC_054000"/>
-      <sheetName val="SEC_055000"/>
-      <sheetName val="SEC_057000"/>
-      <sheetName val="DIV_06Input"/>
-      <sheetName val="DIV_06View_Print"/>
-      <sheetName val="DIV_06Log"/>
-      <sheetName val="DIV_06Update"/>
-      <sheetName val="DIV_06Data"/>
-      <sheetName val="SEC_061000"/>
-      <sheetName val="SEC_062000"/>
-      <sheetName val="SEC_064000"/>
-      <sheetName val="SEC_065000"/>
-      <sheetName val="SEC_066000"/>
-      <sheetName val="SEC_067000"/>
-      <sheetName val="SEC_068000"/>
-      <sheetName val="DIV_07Input"/>
-      <sheetName val="DIV_07View_Print"/>
-      <sheetName val="DIV_07Log"/>
-      <sheetName val="DIV_07Update"/>
-      <sheetName val="DIV_07Data"/>
-      <sheetName val="SEC_071000"/>
-      <sheetName val="SEC_072000"/>
-      <sheetName val="SEC_073000"/>
-      <sheetName val="SEC_074000"/>
-      <sheetName val="SEC_075000"/>
-      <sheetName val="SEC_076000"/>
-      <sheetName val="SEC_077000"/>
-      <sheetName val="SEC_078000"/>
-      <sheetName val="SEC_079000"/>
-      <sheetName val="DIV_08Input"/>
-      <sheetName val="DIV_08View_Print"/>
-      <sheetName val="DIV_08Log"/>
-      <sheetName val="DIV_08Update"/>
-      <sheetName val="DIV_08Data"/>
-      <sheetName val="SEC_081000"/>
-      <sheetName val="SEC_083000"/>
-      <sheetName val="SEC_084000"/>
-      <sheetName val="SEC_085000"/>
-      <sheetName val="SEC_086000"/>
-      <sheetName val="SEC_087000"/>
-      <sheetName val="SEC_088000"/>
-      <sheetName val="SEC_089000"/>
-      <sheetName val="DIV_09Input"/>
-      <sheetName val="DIV_09View_Print"/>
-      <sheetName val="DIV_09Log"/>
-      <sheetName val="DIV_09Update"/>
-      <sheetName val="DIV_09Data"/>
-      <sheetName val="SEC_092000"/>
-      <sheetName val="SEC_093000"/>
-      <sheetName val="SEC_095000"/>
-      <sheetName val="SEC_096000"/>
-      <sheetName val="SEC_097000"/>
-      <sheetName val="SEC_098000"/>
-      <sheetName val="SEC_099000"/>
-      <sheetName val="DIV_10Input"/>
-      <sheetName val="DIV_10View_Print"/>
-      <sheetName val="DIV_10Log"/>
-      <sheetName val="DIV_10Update"/>
-      <sheetName val="DIV_10Data"/>
-      <sheetName val="SEC_101000"/>
-      <sheetName val="SEC_102000"/>
-      <sheetName val="SEC_103000"/>
-      <sheetName val="SEC_104000"/>
-      <sheetName val="SEC_105000"/>
-      <sheetName val="SEC_107000"/>
-      <sheetName val="SEC_108000"/>
-      <sheetName val="DIV_11Input"/>
-      <sheetName val="DIV_11View_Print"/>
-      <sheetName val="DIV_11Log"/>
-      <sheetName val="DIV_11Update"/>
-      <sheetName val="DIV_11Data"/>
-      <sheetName val="SEC_111000"/>
-      <sheetName val="SEC_112000"/>
-      <sheetName val="SEC_113000"/>
-      <sheetName val="SEC_114000"/>
-      <sheetName val="SEC_115000"/>
-      <sheetName val="SEC_116000"/>
-      <sheetName val="SEC_117000"/>
-      <sheetName val="SEC_118000"/>
-      <sheetName val="DIV_12Input"/>
-      <sheetName val="DIV_12View_Print"/>
-      <sheetName val="DIV_12Log"/>
-      <sheetName val="DIV_12Update"/>
-      <sheetName val="DIV_12Data"/>
-      <sheetName val="SEC_121000"/>
-      <sheetName val="SEC_122000"/>
-      <sheetName val="SEC_123000"/>
-      <sheetName val="SEC_124000"/>
-      <sheetName val="SEC_125000"/>
-      <sheetName val="SEC_126000"/>
-      <sheetName val="SEC_129000"/>
-      <sheetName val="DIV_13Input"/>
-      <sheetName val="DIV_13View_Print"/>
-      <sheetName val="DIV_13Log"/>
-      <sheetName val="DIV_13Update"/>
-      <sheetName val="DIV_13Data"/>
-      <sheetName val="SEC_131000"/>
-      <sheetName val="SEC_132000"/>
-      <sheetName val="SEC_133000"/>
-      <sheetName val="SEC_134000"/>
-      <sheetName val="SEC_135000"/>
-      <sheetName val="DIV_14Input"/>
-      <sheetName val="DIV_14View_Print"/>
-      <sheetName val="DIV_14Log"/>
-      <sheetName val="DIV_14Update"/>
-      <sheetName val="DIV_14Data"/>
-      <sheetName val="SEC_141000"/>
-      <sheetName val="SEC_142000"/>
-      <sheetName val="SEC_143000"/>
-      <sheetName val="SEC_144000"/>
-      <sheetName val="SEC_147000"/>
-      <sheetName val="SEC_148000"/>
-      <sheetName val="SEC_149000"/>
-      <sheetName val="DIV_21Input"/>
-      <sheetName val="DIV_21View_Print"/>
-      <sheetName val="DIV_21Log"/>
-      <sheetName val="DIV_21Update"/>
-      <sheetName val="DIV_21Data"/>
-      <sheetName val="SEC_211000"/>
-      <sheetName val="SEC_212000"/>
-      <sheetName val="SEC_213000"/>
-      <sheetName val="DIV_22Input"/>
-      <sheetName val="DIV_22View_Print"/>
-      <sheetName val="DIV_22Log"/>
-      <sheetName val="DIV_22Update"/>
-      <sheetName val="DIV_22Data"/>
-      <sheetName val="SEC_221000"/>
-      <sheetName val="SEC_223000"/>
-      <sheetName val="SEC_224000"/>
-      <sheetName val="SEC_225000"/>
-      <sheetName val="SEC_226000"/>
-      <sheetName val="DIV_23Input"/>
-      <sheetName val="DIV_23View_Print"/>
-      <sheetName val="DIV_23Log"/>
-      <sheetName val="DIV_23Update"/>
-      <sheetName val="DIV_23Data"/>
-      <sheetName val="SEC_231000"/>
-      <sheetName val="SEC_232000"/>
-      <sheetName val="SEC_233000"/>
-      <sheetName val="SEC_234000"/>
-      <sheetName val="SEC_235000"/>
-      <sheetName val="SEC_236000"/>
-      <sheetName val="SEC_237000"/>
-      <sheetName val="SEC_238000"/>
-      <sheetName val="DIV_26Input"/>
-      <sheetName val="DIV_26View_Print"/>
-      <sheetName val="DIV_26Log"/>
-      <sheetName val="DIV_26Update"/>
-      <sheetName val="DIV_26Data"/>
-      <sheetName val="SEC_262000"/>
-      <sheetName val="SEC_261000"/>
-      <sheetName val="SEC_263000"/>
-      <sheetName val="SEC_264000"/>
-      <sheetName val="SEC_265000"/>
-      <sheetName val="DIV_27Input"/>
-      <sheetName val="DIV_27View_Print"/>
-      <sheetName val="DIV_27Log"/>
-      <sheetName val="DIV_27Update"/>
-      <sheetName val="DIV_27Data"/>
-      <sheetName val="SEC_271000"/>
-      <sheetName val="SEC_272000"/>
-      <sheetName val="SEC_273000"/>
-      <sheetName val="SEC_274000"/>
-      <sheetName val="SEC_275000"/>
-      <sheetName val="DIV_28Input"/>
-      <sheetName val="DIV_28View_Print"/>
-      <sheetName val="DIV_28Log"/>
-      <sheetName val="DIV_28Update"/>
-      <sheetName val="DIV_28Data"/>
-      <sheetName val="SEC_281000"/>
-      <sheetName val="SEC_282000"/>
-      <sheetName val="SEC_283000"/>
-      <sheetName val="SEC_284000"/>
-      <sheetName val="SEC_285000"/>
-      <sheetName val="DIV_31Input"/>
-      <sheetName val="DIV_31View_Print"/>
-      <sheetName val="DIV_31Log"/>
-      <sheetName val="DIV_31Update"/>
-      <sheetName val="DIV_31Data"/>
-      <sheetName val="SEC_311000"/>
-      <sheetName val="SEC_312000"/>
-      <sheetName val="SEC_313000"/>
-      <sheetName val="SEC_314000"/>
-      <sheetName val="SEC_315000"/>
-      <sheetName val="SEC_316000"/>
-      <sheetName val="SEC_317000"/>
-      <sheetName val="DIV_32Input"/>
-      <sheetName val="DIV_32View_Print"/>
-      <sheetName val="DIV_32Log"/>
-      <sheetName val="DIV_32Update"/>
-      <sheetName val="DIV_32Data"/>
-      <sheetName val="SEC_321000"/>
-      <sheetName val="SEC_323000"/>
-      <sheetName val="SEC_327000"/>
-      <sheetName val="SEC_328000"/>
-      <sheetName val="SEC_329000"/>
-      <sheetName val="DIV_33Input"/>
-      <sheetName val="DIV_33View_Print"/>
-      <sheetName val="DIV_33Log"/>
-      <sheetName val="DIV_33Update"/>
-      <sheetName val="DIV_33Data"/>
-      <sheetName val="POsInput1"/>
-      <sheetName val="POsInput"/>
-      <sheetName val="POsView_Print"/>
-      <sheetName val="POsLog"/>
-      <sheetName val="POsUpdate"/>
-      <sheetName val="POsData"/>
-      <sheetName val="RFIInput1"/>
-      <sheetName val="RFIInput"/>
-      <sheetName val="RFILog"/>
-      <sheetName val="RFIView_Print"/>
-      <sheetName val="RFIUpdate"/>
-      <sheetName val="RFIData"/>
-      <sheetName val="SubmittalInput1"/>
-      <sheetName val="SubmittalInput"/>
-      <sheetName val="SubmittalLog"/>
-      <sheetName val="SubmittalView_Print"/>
-      <sheetName val="SubmittalUpdate"/>
-      <sheetName val="SubmittalData"/>
-      <sheetName val="SubmittalSchedule"/>
-      <sheetName val="Gantt Chart"/>
-      <sheetName val="RFPInput1"/>
-      <sheetName val="RFPInput"/>
-      <sheetName val="RFPView_Print"/>
-      <sheetName val="RFPLog"/>
-      <sheetName val="RFPUpdate"/>
-      <sheetName val="RFPData"/>
-      <sheetName val="Budget"/>
-      <sheetName val="RFPSummary"/>
-      <sheetName val="SCCOInput1"/>
-      <sheetName val="SCCOInput"/>
-      <sheetName val="SCCOView_Print"/>
-      <sheetName val="SCCOLog"/>
-      <sheetName val="SCCOUpdate"/>
-      <sheetName val="SCCOData"/>
-      <sheetName val="Minutes1"/>
-      <sheetName val="RollingActionItemLog"/>
-      <sheetName val="MinutesInput"/>
-      <sheetName val="MinutesView_Print"/>
-      <sheetName val="MinutesLog"/>
-      <sheetName val="MinutesUpdate"/>
-      <sheetName val="MinutesData"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Company</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>Your Company Name</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v xml:space="preserve"> Project Name</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-      <sheetData sheetId="125"/>
-      <sheetData sheetId="126"/>
-      <sheetData sheetId="127"/>
-      <sheetData sheetId="128"/>
-      <sheetData sheetId="129"/>
-      <sheetData sheetId="130"/>
-      <sheetData sheetId="131"/>
-      <sheetData sheetId="132"/>
-      <sheetData sheetId="133"/>
-      <sheetData sheetId="134"/>
-      <sheetData sheetId="135"/>
-      <sheetData sheetId="136"/>
-      <sheetData sheetId="137"/>
-      <sheetData sheetId="138"/>
-      <sheetData sheetId="139"/>
-      <sheetData sheetId="140"/>
-      <sheetData sheetId="141"/>
-      <sheetData sheetId="142"/>
-      <sheetData sheetId="143"/>
-      <sheetData sheetId="144"/>
-      <sheetData sheetId="145"/>
-      <sheetData sheetId="146"/>
-      <sheetData sheetId="147"/>
-      <sheetData sheetId="148"/>
-      <sheetData sheetId="149"/>
-      <sheetData sheetId="150"/>
-      <sheetData sheetId="151"/>
-      <sheetData sheetId="152"/>
-      <sheetData sheetId="153"/>
-      <sheetData sheetId="154"/>
-      <sheetData sheetId="155"/>
-      <sheetData sheetId="156"/>
-      <sheetData sheetId="157"/>
-      <sheetData sheetId="158"/>
-      <sheetData sheetId="159"/>
-      <sheetData sheetId="160"/>
-      <sheetData sheetId="161"/>
-      <sheetData sheetId="162"/>
-      <sheetData sheetId="163"/>
-      <sheetData sheetId="164"/>
-      <sheetData sheetId="165"/>
-      <sheetData sheetId="166"/>
-      <sheetData sheetId="167"/>
-      <sheetData sheetId="168"/>
-      <sheetData sheetId="169"/>
-      <sheetData sheetId="170"/>
-      <sheetData sheetId="171"/>
-      <sheetData sheetId="172"/>
-      <sheetData sheetId="173"/>
-      <sheetData sheetId="174"/>
-      <sheetData sheetId="175"/>
-      <sheetData sheetId="176"/>
-      <sheetData sheetId="177"/>
-      <sheetData sheetId="178"/>
-      <sheetData sheetId="179"/>
-      <sheetData sheetId="180"/>
-      <sheetData sheetId="181"/>
-      <sheetData sheetId="182"/>
-      <sheetData sheetId="183"/>
-      <sheetData sheetId="184"/>
-      <sheetData sheetId="185"/>
-      <sheetData sheetId="186"/>
-      <sheetData sheetId="187"/>
-      <sheetData sheetId="188"/>
-      <sheetData sheetId="189"/>
-      <sheetData sheetId="190"/>
-      <sheetData sheetId="191"/>
-      <sheetData sheetId="192"/>
-      <sheetData sheetId="193"/>
-      <sheetData sheetId="194"/>
-      <sheetData sheetId="195"/>
-      <sheetData sheetId="196"/>
-      <sheetData sheetId="197"/>
-      <sheetData sheetId="198"/>
-      <sheetData sheetId="199"/>
-      <sheetData sheetId="200"/>
-      <sheetData sheetId="201"/>
-      <sheetData sheetId="202"/>
-      <sheetData sheetId="203"/>
-      <sheetData sheetId="204"/>
-      <sheetData sheetId="205"/>
-      <sheetData sheetId="206"/>
-      <sheetData sheetId="207"/>
-      <sheetData sheetId="208"/>
-      <sheetData sheetId="209"/>
-      <sheetData sheetId="210"/>
-      <sheetData sheetId="211"/>
-      <sheetData sheetId="212"/>
-      <sheetData sheetId="213"/>
-      <sheetData sheetId="214"/>
-      <sheetData sheetId="215"/>
-      <sheetData sheetId="216"/>
-      <sheetData sheetId="217"/>
-      <sheetData sheetId="218"/>
-      <sheetData sheetId="219"/>
-      <sheetData sheetId="220"/>
-      <sheetData sheetId="221"/>
-      <sheetData sheetId="222"/>
-      <sheetData sheetId="223"/>
-      <sheetData sheetId="224"/>
-      <sheetData sheetId="225"/>
-      <sheetData sheetId="226"/>
-      <sheetData sheetId="227"/>
-      <sheetData sheetId="228"/>
-      <sheetData sheetId="229"/>
-      <sheetData sheetId="230"/>
-      <sheetData sheetId="231"/>
-      <sheetData sheetId="232"/>
-      <sheetData sheetId="233"/>
-      <sheetData sheetId="234"/>
-      <sheetData sheetId="235"/>
-      <sheetData sheetId="236"/>
-      <sheetData sheetId="237"/>
-      <sheetData sheetId="238"/>
-      <sheetData sheetId="239"/>
-      <sheetData sheetId="240"/>
-      <sheetData sheetId="241"/>
-      <sheetData sheetId="242"/>
-      <sheetData sheetId="243"/>
-      <sheetData sheetId="244"/>
-      <sheetData sheetId="245"/>
-      <sheetData sheetId="246"/>
-      <sheetData sheetId="247"/>
-      <sheetData sheetId="248"/>
-      <sheetData sheetId="249"/>
-      <sheetData sheetId="250"/>
-      <sheetData sheetId="251"/>
-      <sheetData sheetId="252"/>
-      <sheetData sheetId="253"/>
-      <sheetData sheetId="254"/>
-      <sheetData sheetId="255"/>
-      <sheetData sheetId="256"/>
-      <sheetData sheetId="257"/>
-      <sheetData sheetId="258"/>
-      <sheetData sheetId="259"/>
-      <sheetData sheetId="260"/>
-      <sheetData sheetId="261"/>
-      <sheetData sheetId="262"/>
-      <sheetData sheetId="263"/>
-      <sheetData sheetId="264"/>
-      <sheetData sheetId="265"/>
-      <sheetData sheetId="266"/>
-      <sheetData sheetId="267"/>
-      <sheetData sheetId="268"/>
-      <sheetData sheetId="269"/>
-      <sheetData sheetId="270"/>
-      <sheetData sheetId="271"/>
-      <sheetData sheetId="272"/>
-      <sheetData sheetId="273"/>
-      <sheetData sheetId="274"/>
-      <sheetData sheetId="275"/>
-      <sheetData sheetId="276"/>
-      <sheetData sheetId="277"/>
-      <sheetData sheetId="278"/>
-      <sheetData sheetId="279"/>
-      <sheetData sheetId="280"/>
-      <sheetData sheetId="281"/>
-      <sheetData sheetId="282"/>
-      <sheetData sheetId="283"/>
-      <sheetData sheetId="284"/>
-      <sheetData sheetId="285"/>
-      <sheetData sheetId="286"/>
-      <sheetData sheetId="287"/>
-      <sheetData sheetId="288"/>
-      <sheetData sheetId="289"/>
-      <sheetData sheetId="290"/>
-      <sheetData sheetId="291"/>
-      <sheetData sheetId="292"/>
-      <sheetData sheetId="293"/>
-      <sheetData sheetId="294"/>
-      <sheetData sheetId="295"/>
-      <sheetData sheetId="296"/>
-      <sheetData sheetId="297"/>
-      <sheetData sheetId="298"/>
-      <sheetData sheetId="299"/>
-      <sheetData sheetId="300"/>
-      <sheetData sheetId="301"/>
-      <sheetData sheetId="302"/>
-      <sheetData sheetId="303"/>
-      <sheetData sheetId="304"/>
-      <sheetData sheetId="305"/>
-      <sheetData sheetId="306"/>
-      <sheetData sheetId="307"/>
-      <sheetData sheetId="308"/>
-      <sheetData sheetId="309"/>
-      <sheetData sheetId="310"/>
-      <sheetData sheetId="311"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3357,19 +2698,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="104" t="str">
+      <c r="A3" s="162" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -3380,19 +2721,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="159" t="str">
+      <c r="B4" s="165" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="148" t="str">
+      <c r="F4" s="166" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -3421,20 +2762,20 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="29">
         <v>1</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -3466,20 +2807,20 @@
       <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -3490,20 +2831,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="103" t="str">
+      <c r="B9" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="103" t="str">
+      <c r="G9" s="121" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -3514,20 +2855,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="103" t="str">
+      <c r="B10" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="103" t="str">
+      <c r="G10" s="121" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -3558,12 +2899,12 @@
       <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -3623,11 +2964,11 @@
       <c r="A15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="114" t="str">
+      <c r="B15" s="160" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -3648,19 +2989,19 @@
       <c r="A16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="114" t="str">
+      <c r="B16" s="160" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -3673,20 +3014,20 @@
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="180" t="str">
+      <c r="B17" s="123" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="103" t="str">
+      <c r="G17" s="121" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -3699,19 +3040,19 @@
       <c r="A18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="103" t="str">
+      <c r="G18" s="121" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -3739,19 +3080,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="172"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="167" t="s">
+      <c r="F20" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="176"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="39" t="s">
         <v>41</v>
       </c>
@@ -3767,16 +3108,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="177"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="176"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -3785,15 +3126,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="40" t="s">
         <v>44</v>
       </c>
@@ -3814,14 +3155,14 @@
       <c r="A23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -3833,15 +3174,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="174"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -3853,12 +3194,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="118" t="str">
+      <c r="A25" s="158" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -3876,15 +3217,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="172"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -3896,13 +3237,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -3917,13 +3258,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -3938,13 +3279,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -3959,13 +3300,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -3980,13 +3321,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -4001,13 +3342,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -4022,13 +3363,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -4043,13 +3384,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="128"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -4102,10 +3443,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -4183,18 +3524,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="153"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -4217,8 +3558,8 @@
       <c r="H42" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -4230,18 +3571,18 @@
       <c r="A43" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="135" t="str">
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -4250,18 +3591,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="142"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -4270,18 +3611,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="141"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -4308,10 +3649,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -4319,11 +3660,11 @@
         <v>62</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="142" t="str">
+      <c r="H47" s="147" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="143"/>
+      <c r="I47" s="148"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -4336,20 +3677,20 @@
       <c r="A48" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="144" t="str">
+      <c r="B48" s="126" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="169" t="str">
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="170"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="168"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="104"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -4359,17 +3700,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="162"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="147"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -4379,19 +3720,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="162"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="165" t="s">
+      <c r="H50" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="166"/>
+      <c r="I50" s="133"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -4401,10 +3742,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="160"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="18" t="s">
         <v>50</v>
       </c>
@@ -4423,18 +3764,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="117"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -4443,16 +3784,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="120"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -5065,11 +4406,34 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:J53"/>
     <mergeCell ref="B10:D10"/>
@@ -5086,38 +4450,15 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
@@ -5262,19 +4603,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="104" t="str">
+      <c r="A3" s="162" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -5285,19 +4626,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="159" t="str">
+      <c r="B4" s="165" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="148" t="str">
+      <c r="F4" s="166" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -5326,20 +4667,20 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="29">
         <v>1</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -5371,20 +4712,20 @@
       <c r="A8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -5395,20 +4736,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="103" t="str">
+      <c r="B9" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="103" t="str">
+      <c r="G9" s="121" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -5419,20 +4760,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="103" t="str">
+      <c r="B10" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="103" t="str">
+      <c r="G10" s="121" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -5463,12 +4804,12 @@
       <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="103" t="str">
+      <c r="B12" s="121" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -5528,11 +4869,11 @@
       <c r="A15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="114" t="str">
+      <c r="B15" s="160" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -5553,19 +4894,19 @@
       <c r="A16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="114" t="str">
+      <c r="B16" s="160" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -5578,20 +4919,20 @@
       <c r="A17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="180" t="str">
+      <c r="B17" s="123" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="103" t="str">
+      <c r="G17" s="121" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -5604,19 +4945,19 @@
       <c r="A18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="103" t="str">
+      <c r="G18" s="121" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -5644,19 +4985,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="172"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="167" t="s">
+      <c r="F20" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="176"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="39" t="s">
         <v>41</v>
       </c>
@@ -5672,16 +5013,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="177"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="176"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -5690,15 +5031,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="175" t="s">
+      <c r="A22" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="176"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="40" t="s">
         <v>44</v>
       </c>
@@ -5719,14 +5060,14 @@
       <c r="A23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -5738,15 +5079,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="174"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -5758,12 +5099,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="118" t="str">
+      <c r="A25" s="158" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -5781,15 +5122,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="172"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -5801,13 +5142,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -5822,13 +5163,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -5843,13 +5184,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -5864,13 +5205,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -5885,13 +5226,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -5906,13 +5247,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -5927,13 +5268,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -5948,13 +5289,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="128"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -6007,10 +5348,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="162"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -6088,18 +5429,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="153"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -6122,8 +5463,8 @@
       <c r="H42" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -6135,18 +5476,18 @@
       <c r="A43" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="135" t="str">
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -6155,18 +5496,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="142"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -6175,18 +5516,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="141"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -6213,10 +5554,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="161" t="s">
+      <c r="A47" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="162"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -6224,11 +5565,11 @@
         <v>62</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="142" t="str">
+      <c r="H47" s="147" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="143"/>
+      <c r="I47" s="148"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -6241,20 +5582,20 @@
       <c r="A48" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="144" t="str">
+      <c r="B48" s="126" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="169" t="str">
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="170"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="168"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="104"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -6264,17 +5605,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="162"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="147"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -6284,19 +5625,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="162"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="165" t="s">
+      <c r="H50" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="166"/>
+      <c r="I50" s="133"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -6306,10 +5647,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="160"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="18" t="s">
         <v>50</v>
       </c>
@@ -6328,18 +5669,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="117"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -6348,16 +5689,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="120"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -6970,18 +6311,24 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A52:J53"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
@@ -6998,31 +6345,25 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{8ACE7671-8E0C-4D4C-8C0B-CA24DEBA9689}"/>
@@ -7098,41 +6439,41 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
     </row>
@@ -7149,14 +6490,14 @@
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
     </row>
@@ -7174,38 +6515,38 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -7222,9 +6563,9 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -7258,8 +6599,8 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="121"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
@@ -7270,38 +6611,38 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="32"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="103"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="32"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -7317,69 +6658,69 @@
       <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="178"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="176"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="177"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="176"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="175"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="176"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="41"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="173"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="174"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="118"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
+      <c r="A25" s="158"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -7389,109 +6730,109 @@
       <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="171"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="172"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="128"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -7521,8 +6862,8 @@
       <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="163"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7569,16 +6910,16 @@
       <c r="J40" s="30"/>
     </row>
     <row r="41" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="129"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="153"/>
     </row>
     <row r="42" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="68"/>
@@ -7589,44 +6930,44 @@
       <c r="F42" s="69"/>
       <c r="G42" s="70"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A43" s="134"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="139"/>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="138"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="142"/>
     </row>
     <row r="45" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="129"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="141"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="145"/>
     </row>
     <row r="46" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32"/>
@@ -7641,56 +6982,56 @@
       <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="161"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="143"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="148"/>
       <c r="J47" s="71"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="60"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="168"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="104"/>
       <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="163"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="108"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="147"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
       <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="163"/>
-      <c r="B50" s="162"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="108"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="166"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="133"/>
       <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="164"/>
-      <c r="B51" s="160"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="18"/>
       <c r="D51" s="74"/>
       <c r="E51" s="18"/>
@@ -7701,55 +7042,47 @@
       <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A25:C25"/>
@@ -7764,22 +7097,30 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{B63F09C6-F7F5-441F-B09E-39A426A0CE44}"/>
@@ -7825,14 +7166,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="75"/>
@@ -7846,17 +7187,15 @@
       <c r="A3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="154" t="str">
-        <f>[1]Contacts!F5</f>
-        <v xml:space="preserve"> Project Name</v>
-      </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156" t="str">
-        <f>[1]Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
+      <c r="B3" s="175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
@@ -7984,20 +7323,20 @@
       <c r="A1" s="81"/>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
-      <c r="D1" s="158" t="str">
+      <c r="D1" s="178" t="str">
         <f>F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
       <c r="O1" s="83"/>
       <c r="P1" s="83"/>
       <c r="Q1" s="83"/>

--- a/po.xlsx
+++ b/po.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF98942-6CB0-4D2C-BF75-D0A168BB2DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C4C39-CD44-498B-A0D1-782FEBA3016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="20" r:id="rId1"/>
@@ -382,7 +382,7 @@
     <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +738,15 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0066CC"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1541,7 +1550,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1739,21 +1748,60 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1762,14 +1810,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1796,15 +1866,14 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,83 +1884,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1910,11 +1925,8 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="33" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2559,7 +2571,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="" visibility="1" width="525" row="10">
+  <wetp:taskpane dockstate="" visibility="1" width="525" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2579,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE327EE4-9131-4CD4-B5DD-4364FEF3FFA5}">
   <dimension ref="A1:R2001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,22 +2619,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="45.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
+      <c r="B1" s="180" t="str">
+        <f>HYPERLINK("https://datamateapp.github.io/Outlook.html", "Help")</f>
+        <v>Help</v>
+      </c>
       <c r="C1" s="82"/>
-      <c r="D1" s="178" t="str">
+      <c r="D1" s="103" t="str">
         <f>F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
       <c r="O1" s="83"/>
       <c r="P1" s="83"/>
       <c r="Q1" s="83"/>
@@ -54935,19 +54950,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="105" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -54958,19 +54973,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="163" t="str">
+      <c r="B4" s="108" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="164" t="str">
+      <c r="F4" s="110" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -54999,20 +55014,20 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="29">
         <v>1</v>
       </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -55044,20 +55059,20 @@
       <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -55068,20 +55083,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="126" t="str">
+      <c r="B9" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="126" t="str">
+      <c r="G9" s="104" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -55092,20 +55107,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="126" t="str">
+      <c r="B10" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="126" t="str">
+      <c r="G10" s="104" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -55136,12 +55151,12 @@
       <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="126" t="str">
+      <c r="B12" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -55201,11 +55216,11 @@
       <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="170" t="str">
+      <c r="B15" s="116" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="126"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -55226,19 +55241,19 @@
       <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="170" t="str">
+      <c r="B16" s="116" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -55251,20 +55266,20 @@
       <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="128" t="str">
+      <c r="B17" s="152" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="126" t="str">
+      <c r="G17" s="104" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -55277,19 +55292,19 @@
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="126" t="str">
+      <c r="G18" s="104" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -55317,19 +55332,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="39" t="s">
         <v>26</v>
       </c>
@@ -55345,16 +55360,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -55363,15 +55378,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="40" t="s">
         <v>29</v>
       </c>
@@ -55392,14 +55407,14 @@
       <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -55411,15 +55426,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -55431,12 +55446,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="158" t="str">
+      <c r="A25" s="125" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -55454,15 +55469,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -55474,13 +55489,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -55495,13 +55510,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -55516,13 +55531,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -55537,13 +55552,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -55558,13 +55573,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -55579,13 +55594,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -55600,13 +55615,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -55621,13 +55636,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="118"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -55680,10 +55695,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -55761,18 +55776,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="120"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -55795,8 +55810,8 @@
       <c r="H42" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -55805,21 +55820,21 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="141" t="str">
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="132" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="135"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -55828,18 +55843,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="146"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="138"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -55848,18 +55863,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="139"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -55886,10 +55901,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -55897,11 +55912,11 @@
         <v>47</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="151" t="str">
+      <c r="H47" s="142" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="152"/>
+      <c r="I47" s="143"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -55914,20 +55929,20 @@
       <c r="A48" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="131" t="str">
+      <c r="B48" s="157" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133" t="str">
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="159" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="134"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="104"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="161"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -55937,17 +55952,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="113" t="s">
+      <c r="A49" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="108"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="136"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="164"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -55957,19 +55972,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="108"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="137" t="s">
+      <c r="H50" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="138"/>
+      <c r="I50" s="130"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -55979,10 +55994,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="18" t="s">
         <v>35</v>
       </c>
@@ -56001,18 +56016,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -56021,16 +56036,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="150"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -56643,34 +56658,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:J53"/>
     <mergeCell ref="B10:D10"/>
@@ -56687,15 +56683,34 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
@@ -56722,7 +56737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756C853D-B977-4F0D-854F-8D895BDC5AEF}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -56840,19 +56855,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="160" t="str">
+      <c r="A3" s="105" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -56863,19 +56878,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="163" t="str">
+      <c r="B4" s="108" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="164" t="str">
+      <c r="F4" s="110" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -56904,18 +56919,18 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -56947,20 +56962,20 @@
       <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -56971,20 +56986,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="126" t="str">
+      <c r="B9" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="126" t="str">
+      <c r="G9" s="104" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -56995,20 +57010,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="126" t="str">
+      <c r="B10" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="126" t="str">
+      <c r="G10" s="104" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -57039,12 +57054,12 @@
       <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="126" t="str">
+      <c r="B12" s="104" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -57104,11 +57119,11 @@
       <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="170" t="str">
+      <c r="B15" s="116" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="126"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -57129,19 +57144,19 @@
       <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="170" t="str">
+      <c r="B16" s="116" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -57154,20 +57169,20 @@
       <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="128" t="str">
+      <c r="B17" s="152" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="126" t="str">
+      <c r="G17" s="104" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -57180,19 +57195,19 @@
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="126" t="str">
+      <c r="G18" s="104" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -57220,19 +57235,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="39" t="s">
         <v>26</v>
       </c>
@@ -57248,16 +57263,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="A21" s="165"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -57266,15 +57281,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="40" t="s">
         <v>29</v>
       </c>
@@ -57295,15 +57310,15 @@
       <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="155" t="str">
+      <c r="B23" s="122" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -57315,15 +57330,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -57335,12 +57350,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="158" t="str">
+      <c r="A25" s="125" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -57358,15 +57373,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -57378,13 +57393,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -57399,13 +57414,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -57420,13 +57435,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -57441,13 +57456,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -57462,13 +57477,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -57483,13 +57498,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -57504,13 +57519,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -57525,13 +57540,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="118"/>
+      <c r="A34" s="170"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -57584,10 +57599,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -57665,18 +57680,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="147" t="s">
+      <c r="A41" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="120"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -57699,8 +57714,8 @@
       <c r="H42" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -57709,21 +57724,21 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="141" t="str">
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="132" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="135"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -57732,18 +57747,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="144" t="s">
+      <c r="A44" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="146"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="138"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -57752,18 +57767,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="139"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -57790,10 +57805,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -57801,11 +57816,11 @@
         <v>47</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="151" t="str">
+      <c r="H47" s="142" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="152"/>
+      <c r="I47" s="143"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -57818,20 +57833,20 @@
       <c r="A48" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="131" t="str">
+      <c r="B48" s="157" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133" t="str">
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="159" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="134"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="104"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="161"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -57841,17 +57856,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="113" t="s">
+      <c r="A49" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="108"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="136"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="163"/>
+      <c r="I49" s="164"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -57861,19 +57876,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="108"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="137" t="s">
+      <c r="H50" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="138"/>
+      <c r="I50" s="130"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -57883,10 +57898,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="18" t="s">
         <v>35</v>
       </c>
@@ -57905,18 +57920,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -57925,16 +57940,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="150"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -58547,13 +58562,36 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A20:B20"/>
@@ -58570,36 +58608,13 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{8ACE7671-8E0C-4D4C-8C0B-CA24DEBA9689}"/>
@@ -58650,20 +58665,20 @@
         <f>View_Print!B2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="179" t="str">
+      <c r="B1" s="172" t="str">
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
       <c r="M1" s="3" t="str">
         <f>Input!M1</f>
         <v>Date Signed:</v>
@@ -58681,34 +58696,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="160" t="e">
+      <c r="A3" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,36,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
       <c r="K3" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,46,FALSE)</f>
         <v>#N/A</v>
@@ -58743,22 +58758,22 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,53,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B4" s="163" t="e">
+      <c r="B4" s="108" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,54,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,57,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="164" t="e">
+      <c r="F4" s="110" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,58,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,61,FALSE)</f>
         <v>#N/A</v>
@@ -58867,12 +58882,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="e">
+      <c r="A6" s="111" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,87,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="29" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,90,FALSE)</f>
         <v>#N/A</v>
@@ -58881,12 +58896,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,91,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="167" t="e">
+      <c r="F6" s="113" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,92,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
       <c r="I6" s="31" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,95,FALSE)</f>
         <v>#N/A</v>
@@ -58999,12 +59014,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,121,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B8" s="169" t="e">
+      <c r="B8" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,122,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,125,FALSE)</f>
         <v>#N/A</v>
@@ -59013,12 +59028,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,126,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="169" t="e">
+      <c r="G8" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,127,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,130,FALSE)</f>
         <v>#N/A</v>
@@ -59057,12 +59072,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="126" t="e">
+      <c r="B9" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,139,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,142,FALSE)</f>
         <v>#N/A</v>
@@ -59071,12 +59086,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="126" t="e">
+      <c r="G9" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,144,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,147,FALSE)</f>
         <v>#N/A</v>
@@ -59115,12 +59130,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="126" t="e">
+      <c r="B10" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,156,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,159,FALSE)</f>
         <v>#N/A</v>
@@ -59129,12 +59144,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="126" t="e">
+      <c r="G10" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,161,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,164,FALSE)</f>
         <v>#N/A</v>
@@ -59243,12 +59258,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="126" t="e">
+      <c r="B12" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,190,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,193,FALSE)</f>
         <v>#N/A</v>
@@ -59447,11 +59462,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,240,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B15" s="170" t="e">
+      <c r="B15" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,241,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="126"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,243,FALSE)</f>
         <v>#N/A</v>
@@ -59514,11 +59529,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,257,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="170" t="e">
+      <c r="B16" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,258,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,260,FALSE)</f>
         <v>#N/A</v>
@@ -59531,12 +59546,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,262,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="169" t="e">
+      <c r="G16" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,263,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,266,FALSE)</f>
         <v>#N/A</v>
@@ -59575,12 +59590,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,274,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="128" t="e">
+      <c r="B17" s="152" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,275,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,278,FALSE)</f>
         <v>#N/A</v>
@@ -59589,12 +59604,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,279,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="126" t="e">
+      <c r="G17" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,280,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
       <c r="J17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,283,FALSE)</f>
         <v>#N/A</v>
@@ -59633,12 +59648,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,291,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B18" s="128" t="e">
+      <c r="B18" s="152" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,292,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,295,FALSE)</f>
         <v>#N/A</v>
@@ -59647,12 +59662,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,296,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="126" t="e">
+      <c r="G18" s="104" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,297,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
       <c r="J18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,300,FALSE)</f>
         <v>#N/A</v>
@@ -59757,11 +59772,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="129" t="e">
+      <c r="A20" s="153" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,325,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="34" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,327,FALSE)</f>
         <v>#N/A</v>
@@ -59774,11 +59789,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,329,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="130" t="e">
+      <c r="F20" s="155" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,330,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="39" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,332,FALSE)</f>
         <v>#N/A</v>
@@ -59821,19 +59836,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="103" t="e">
+      <c r="A21" s="165" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="156"/>
       <c r="K21" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,352,FALSE)</f>
         <v>#N/A</v>
@@ -59864,16 +59879,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="106" t="e">
+      <c r="A22" s="166" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,359,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="156"/>
       <c r="H22" s="40" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,366,FALSE)</f>
         <v>#N/A</v>
@@ -59920,15 +59935,15 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,376,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B23" s="155" t="e">
+      <c r="B23" s="122" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,377,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="157"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
       <c r="H23" s="43" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,383,FALSE)</f>
         <v>#N/A</v>
@@ -59971,16 +59986,16 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="107" t="e">
+      <c r="A24" s="167" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,393,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,400,FALSE)</f>
         <v>#N/A</v>
@@ -60023,12 +60038,12 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="158" t="e">
+      <c r="A25" s="125" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,410,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="49" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,413,FALSE)</f>
         <v>#N/A</v>
@@ -60087,16 +60102,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="110" t="e">
+      <c r="A26" s="169" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,427,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="154"/>
       <c r="H26" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,434,FALSE)</f>
         <v>#N/A</v>
@@ -60139,16 +60154,16 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="114" t="e">
+      <c r="A27" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,444,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
       <c r="H27" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,451,FALSE)</f>
         <v>#N/A</v>
@@ -60191,16 +60206,16 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="114" t="e">
+      <c r="A28" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,461,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,468,FALSE)</f>
         <v>#N/A</v>
@@ -60243,16 +60258,16 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="114" t="e">
+      <c r="A29" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,478,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,485,FALSE)</f>
         <v>#N/A</v>
@@ -60295,16 +60310,16 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="114" t="e">
+      <c r="A30" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,495,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,502,FALSE)</f>
         <v>#N/A</v>
@@ -60347,16 +60362,16 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="114" t="e">
+      <c r="A31" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,519,FALSE)</f>
         <v>#N/A</v>
@@ -60399,16 +60414,16 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="114" t="e">
+      <c r="A32" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,536,FALSE)</f>
         <v>#N/A</v>
@@ -60451,16 +60466,16 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="114" t="e">
+      <c r="A33" s="127" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,553,FALSE)</f>
         <v>#N/A</v>
@@ -60503,16 +60518,16 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="116" t="e">
+      <c r="A34" s="170" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="118"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,570,FALSE)</f>
         <v>#N/A</v>
@@ -60695,11 +60710,11 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="113" t="e">
+      <c r="A37" s="162" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="108"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,616,FALSE)</f>
         <v>#N/A</v>
@@ -60972,19 +60987,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="147" t="e">
+      <c r="A41" s="117" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,682,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="120"/>
       <c r="K41" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,692,FALSE)</f>
         <v>#N/A</v>
@@ -61047,11 +61062,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,706,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I42" s="154" t="e">
+      <c r="I42" s="121" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,707,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="154"/>
+      <c r="J42" s="121"/>
       <c r="K42" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,709,FALSE)</f>
         <v>#N/A</v>
@@ -61082,22 +61097,22 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="139" t="e">
+      <c r="A43" s="131" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="141" t="e">
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="132" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,720,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="141"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="135"/>
       <c r="K43" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,726,FALSE)</f>
         <v>#N/A</v>
@@ -61128,19 +61143,19 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="144" t="e">
+      <c r="A44" s="136" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,733,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="146"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="138"/>
       <c r="K44" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,743,FALSE)</f>
         <v>#N/A</v>
@@ -61171,19 +61186,19 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="147" t="e">
+      <c r="A45" s="117" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="139"/>
       <c r="K45" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,760,FALSE)</f>
         <v>#N/A</v>
@@ -61284,11 +61299,11 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="150" t="e">
+      <c r="A47" s="140" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,786,FALSE)</f>
         <v>#N/A</v>
@@ -61309,11 +61324,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,790,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="151" t="e">
+      <c r="H47" s="142" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,791,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="152"/>
+      <c r="I47" s="143"/>
       <c r="J47" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,793,FALSE)</f>
         <v>#N/A</v>
@@ -61352,23 +61367,23 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,801,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B48" s="131" t="e">
+      <c r="B48" s="157" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,802,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133" t="e">
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="159" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,806,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="134"/>
-      <c r="H48" s="130" t="e">
+      <c r="G48" s="160"/>
+      <c r="H48" s="155" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,808,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I48" s="104"/>
+      <c r="I48" s="161"/>
       <c r="J48" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,810,FALSE)</f>
         <v>#N/A</v>
@@ -61403,11 +61418,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="113" t="e">
+      <c r="A49" s="162" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,818,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B49" s="108"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,820,FALSE)</f>
         <v>#N/A</v>
@@ -61420,13 +61435,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,822,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135" t="e">
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="163" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,825,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="136"/>
+      <c r="I49" s="164"/>
       <c r="J49" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,827,FALSE)</f>
         <v>#N/A</v>
@@ -61461,11 +61476,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="113" t="e">
+      <c r="A50" s="162" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,835,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B50" s="108"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,837,FALSE)</f>
         <v>#N/A</v>
@@ -61486,11 +61501,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,841,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="137" t="e">
+      <c r="H50" s="129" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,842,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="138"/>
+      <c r="I50" s="130"/>
       <c r="J50" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,844,FALSE)</f>
         <v>#N/A</v>
@@ -61525,11 +61540,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="119" t="e">
+      <c r="A51" s="144" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,852,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="18" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,854,FALSE)</f>
         <v>#N/A</v>
@@ -61592,19 +61607,19 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="120" t="e">
+      <c r="A52" s="145" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,869,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
       <c r="K52" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,879,FALSE)</f>
         <v>#N/A</v>
@@ -61635,16 +61650,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="150"/>
       <c r="K53" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$999999,896,FALSE)</f>
         <v>#N/A</v>
@@ -71966,23 +71981,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A25:C25"/>
@@ -71997,30 +72019,23 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{B63F09C6-F7F5-441F-B09E-39A426A0CE44}"/>
@@ -72066,14 +72081,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="75"/>
@@ -72087,15 +72102,15 @@
       <c r="A3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177" t="s">
+      <c r="C3" s="178"/>
+      <c r="D3" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
@@ -72111,7 +72126,7 @@
       </c>
       <c r="B5" s="80">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45640</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="77"/>

--- a/po.xlsx
+++ b/po.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnort\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/DataMate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F5769-4B20-4BF0-95F0-936D6C46C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA3DE50-0C29-4BAC-978F-60555C563580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="20" r:id="rId1"/>
-    <sheet name="Input (2)" sheetId="22" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId2"/>
     <sheet name="Input" sheetId="14" r:id="rId3"/>
     <sheet name="View_Print" sheetId="15" r:id="rId4"/>
     <sheet name="Log" sheetId="13" r:id="rId5"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
   <si>
     <t>Log 8</t>
   </si>
@@ -1754,21 +1754,57 @@
     <xf numFmtId="165" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1777,14 +1813,36 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1811,15 +1869,14 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1830,83 +1887,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -54830,6 +54830,1813 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D337F5-37CD-461F-A905-05F18A1AF2C3}">
+  <dimension ref="A1:Q198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="106" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="109" t="str">
+        <f>Contacts!L4</f>
+        <v>1234 Construction Lane</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="111" t="str">
+        <f>VLOOKUP(A1,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A1,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A1,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="105" t="str">
+        <f>VLOOKUP(B6,Contacts!C3:R2001,10,FALSE)</f>
+        <v>440 North Industrial Drive</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="105" t="str">
+        <f>VLOOKUP(G6,Contacts!C3:W2001,10,FALSE)</f>
+        <v>101 Enterprise Dr</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="105" t="str">
+        <f>VLOOKUP(B6,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B6,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B6,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="105" t="str">
+        <f>VLOOKUP(G6,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G6,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G6,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, Illinois 62523</v>
+      </c>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="105" t="str">
+        <f>VLOOKUP(B6,Contacts!$C$3:$R2001,2,FALSE)</f>
+        <v>Michael Jordan</v>
+      </c>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="117" t="str">
+        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
+        <v>(555) 555-1733</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="117" t="str">
+        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
+        <v>(555) 555-9790</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="153" t="str">
+        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
+        <v>mjordan@examplesupplier.com</v>
+      </c>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="105" t="str">
+        <f>VLOOKUP(G14,Contacts!C3:W2009,10,FALSE)</f>
+        <v>1234 Construction Lane</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="105" t="str">
+        <f>VLOOKUP(G14,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G14,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G14,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="155"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="157"/>
+      <c r="H18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="166"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="126" t="str">
+        <f>Contacts!F6</f>
+        <v xml:space="preserve"> A/E / Developer</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="170" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57">
+        <f t="shared" ref="J25:J31" si="0">H25*I25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="128"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="128"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="171"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="32"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="32"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48">
+        <f>SUM(J25:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="142"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="32"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67">
+        <f>SUM(J34)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="70"/>
+      <c r="H40" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="133" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="138"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="32"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="A45" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="142"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="143" t="str">
+        <f>VLOOKUP(F46,Contacts!C3:R2001,2,FALSE)</f>
+        <v>Your Name</v>
+      </c>
+      <c r="I45" s="144"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="158" t="str">
+        <f>B6</f>
+        <v>Example Supplier/Vendor</v>
+      </c>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="160" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="G46" s="161"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="142"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="142"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="131"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="110"/>
+      <c r="C49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="149"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="9"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="9"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="9"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="9"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="9"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="9"/>
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="9"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="9"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="9"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="9"/>
+      <c r="Q86" s="10"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="9"/>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="9"/>
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="9"/>
+      <c r="Q90" s="10"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="9"/>
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="9"/>
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="9"/>
+      <c r="Q93" s="10"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="9"/>
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="Q95" s="10"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="Q96" s="10"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="9"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="Q98" s="10"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="9"/>
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="9"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="9"/>
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="9"/>
+      <c r="Q103" s="10"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="9"/>
+      <c r="Q104" s="10"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="9"/>
+      <c r="Q105" s="10"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="9"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="9"/>
+      <c r="Q107" s="10"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="9"/>
+      <c r="Q108" s="10"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="9"/>
+      <c r="Q109" s="10"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" s="9"/>
+      <c r="Q110" s="10"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" s="9"/>
+      <c r="Q111" s="10"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" s="9"/>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" s="9"/>
+      <c r="Q113" s="10"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" s="9"/>
+      <c r="Q114" s="10"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="9"/>
+      <c r="Q115" s="10"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="9"/>
+      <c r="Q116" s="10"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" s="9"/>
+      <c r="Q117" s="10"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" s="9"/>
+      <c r="Q118" s="10"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="9"/>
+      <c r="Q119" s="10"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" s="9"/>
+      <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" s="9"/>
+      <c r="Q121" s="10"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" s="9"/>
+      <c r="Q122" s="10"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" s="9"/>
+      <c r="Q123" s="10"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A124" s="9"/>
+      <c r="Q124" s="10"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125" s="9"/>
+      <c r="Q125" s="10"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A126" s="9"/>
+      <c r="Q126" s="10"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A127" s="9"/>
+      <c r="Q127" s="10"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128" s="9"/>
+      <c r="Q128" s="10"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A129" s="9"/>
+      <c r="Q129" s="10"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A130" s="9"/>
+      <c r="Q130" s="10"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A131" s="9"/>
+      <c r="Q131" s="10"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A132" s="9"/>
+      <c r="Q132" s="10"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A133" s="9"/>
+      <c r="Q133" s="10"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A134" s="9"/>
+      <c r="Q134" s="10"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A135" s="9"/>
+      <c r="Q135" s="10"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A136" s="9"/>
+      <c r="Q136" s="10"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A137" s="9"/>
+      <c r="Q137" s="10"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A138" s="9"/>
+      <c r="Q138" s="10"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A139" s="9"/>
+      <c r="Q139" s="10"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A140" s="9"/>
+      <c r="Q140" s="10"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A141" s="9"/>
+      <c r="Q141" s="10"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A142" s="9"/>
+      <c r="Q142" s="10"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A143" s="9"/>
+      <c r="Q143" s="10"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A144" s="9"/>
+      <c r="Q144" s="10"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A145" s="9"/>
+      <c r="Q145" s="10"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A146" s="9"/>
+      <c r="Q146" s="10"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A147" s="9"/>
+      <c r="Q147" s="10"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A148" s="9"/>
+      <c r="Q148" s="10"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A149" s="9"/>
+      <c r="Q149" s="10"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A150" s="9"/>
+      <c r="Q150" s="10"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A151" s="9"/>
+      <c r="Q151" s="10"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A152" s="9"/>
+      <c r="Q152" s="10"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A153" s="9"/>
+      <c r="Q153" s="10"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A154" s="9"/>
+      <c r="Q154" s="10"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A155" s="9"/>
+      <c r="Q155" s="10"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A156" s="9"/>
+      <c r="Q156" s="10"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A157" s="9"/>
+      <c r="Q157" s="10"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A158" s="9"/>
+      <c r="Q158" s="10"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A159" s="9"/>
+      <c r="Q159" s="10"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A160" s="9"/>
+      <c r="Q160" s="10"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A161" s="9"/>
+      <c r="Q161" s="10"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A162" s="9"/>
+      <c r="Q162" s="10"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A163" s="9"/>
+      <c r="Q163" s="10"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A164" s="9"/>
+      <c r="Q164" s="10"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A165" s="9"/>
+      <c r="Q165" s="10"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A166" s="9"/>
+      <c r="Q166" s="10"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A167" s="9"/>
+      <c r="Q167" s="10"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A168" s="9"/>
+      <c r="Q168" s="10"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A169" s="9"/>
+      <c r="Q169" s="10"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A170" s="9"/>
+      <c r="Q170" s="10"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A171" s="9"/>
+      <c r="Q171" s="10"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A172" s="9"/>
+      <c r="Q172" s="10"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A173" s="9"/>
+      <c r="Q173" s="10"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A174" s="9"/>
+      <c r="Q174" s="10"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A175" s="9"/>
+      <c r="Q175" s="10"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A176" s="9"/>
+      <c r="Q176" s="10"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A177" s="9"/>
+      <c r="Q177" s="10"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A178" s="9"/>
+      <c r="Q178" s="10"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A179" s="9"/>
+      <c r="Q179" s="10"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A180" s="9"/>
+      <c r="Q180" s="10"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A181" s="9"/>
+      <c r="Q181" s="10"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A182" s="9"/>
+      <c r="Q182" s="10"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A183" s="9"/>
+      <c r="Q183" s="10"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A184" s="9"/>
+      <c r="Q184" s="10"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A185" s="9"/>
+      <c r="Q185" s="10"/>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A186" s="9"/>
+      <c r="Q186" s="10"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A187" s="9"/>
+      <c r="Q187" s="10"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A188" s="9"/>
+      <c r="Q188" s="10"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A189" s="9"/>
+      <c r="Q189" s="10"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A190" s="9"/>
+      <c r="Q190" s="10"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A191" s="9"/>
+      <c r="Q191" s="10"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A192" s="9"/>
+      <c r="Q192" s="10"/>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A193" s="9"/>
+      <c r="Q193" s="10"/>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A194" s="9"/>
+      <c r="Q194" s="10"/>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A195" s="9"/>
+      <c r="Q195" s="10"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A196" s="9"/>
+      <c r="Q196" s="10"/>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A197" s="9"/>
+      <c r="Q197" s="10"/>
+    </row>
+    <row r="198" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="11"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:J51"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:I14"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G40" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new purchase order number." sqref="D4" xr:uid="{8FB4B432-E7A0-4B7E-B9B1-539F0FDD120A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I4" xr:uid="{0C7C60AD-6D57-4CED-BA13-627176103B4E}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6547284-605F-4CAA-BA47-43CD3038B4E8}">
+          <x14:formula1>
+            <xm:f>Contacts!$F$2:$F$2000</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:D6 G14:I14 G6:I6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756C853D-B977-4F0D-854F-8D895BDC5AEF}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54912,7 +56719,7 @@
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17">
         <f>D6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="18" t="str">
         <f>B8</f>
@@ -54950,19 +56757,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="162" t="str">
+      <c r="A3" s="106" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -54973,19 +56780,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="165" t="str">
+      <c r="B4" s="109" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="166" t="str">
+      <c r="F4" s="111" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -55014,20 +56821,18 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="29">
-        <v>1</v>
-      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="169" t="s">
+      <c r="F6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -55059,20 +56864,20 @@
       <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -55083,20 +56888,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="128" t="str">
+      <c r="B9" s="105" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="128" t="str">
+      <c r="G9" s="105" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -55107,20 +56912,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="128" t="str">
+      <c r="B10" s="105" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="128" t="str">
+      <c r="G10" s="105" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -55151,12 +56956,12 @@
       <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="128" t="str">
+      <c r="B12" s="105" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -55216,11 +57021,11 @@
       <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="172" t="str">
+      <c r="B15" s="117" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -55241,19 +57046,19 @@
       <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="172" t="str">
+      <c r="B16" s="117" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="171" t="s">
+      <c r="G16" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -55266,20 +57071,20 @@
       <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="130" t="str">
+      <c r="B17" s="153" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="128" t="str">
+      <c r="G17" s="105" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -55292,19 +57097,19 @@
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="128" t="str">
+      <c r="G18" s="105" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -55332,19 +57137,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="107"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="39" t="s">
         <v>26</v>
       </c>
@@ -55360,16 +57165,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="157"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -55378,15 +57183,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="40" t="s">
         <v>29</v>
       </c>
@@ -55407,14 +57212,15 @@
       <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="157" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="123" t="str">
+        <f>Contacts!F5</f>
+        <v xml:space="preserve"> Project Name</v>
+      </c>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -55426,15 +57232,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -55446,12 +57252,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="160" t="str">
+      <c r="A25" s="126" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -55469,15 +57275,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -55489,13 +57295,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -55510,13 +57316,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -55531,13 +57337,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -55552,13 +57358,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
+      <c r="A30" s="128"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -55573,13 +57379,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -55594,13 +57400,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -55615,13 +57421,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -55636,13 +57442,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="172"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -55695,10 +57501,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="115" t="s">
+      <c r="A37" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -55776,18 +57582,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="155"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="121"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -55810,8 +57616,8 @@
       <c r="H42" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
+      <c r="I42" s="122"/>
+      <c r="J42" s="122"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -55820,21 +57626,21 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143" t="str">
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="133" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="143"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="136"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -55843,18 +57649,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="148"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="139"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -55863,18 +57669,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="149" t="s">
+      <c r="A45" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="151"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="140"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -55901,10 +57707,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="152" t="s">
+      <c r="A47" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="142"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -55912,11 +57718,11 @@
         <v>47</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="153" t="str">
+      <c r="H47" s="143" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="154"/>
+      <c r="I47" s="144"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -55925,24 +57731,24 @@
       <c r="O47" s="24"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="133" t="str">
+      <c r="B48" s="158" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="135" t="str">
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="160" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="136"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="106"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="162"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -55952,17 +57758,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="110"/>
+      <c r="B49" s="142"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="138"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="164"/>
+      <c r="I49" s="165"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -55972,19 +57778,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="115" t="s">
+      <c r="A50" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="110"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="139" t="s">
+      <c r="H50" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="140"/>
+      <c r="I50" s="131"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -55994,10 +57800,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="121" t="s">
+      <c r="A51" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="113"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="18" t="s">
         <v>35</v>
       </c>
@@ -56016,18 +57822,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="148"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -56036,16 +57842,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="125"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
+      <c r="A53" s="149"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -56658,1917 +58464,36 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A41:J41"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new purchase order number." sqref="D6" xr:uid="{8FB4B432-E7A0-4B7E-B9B1-539F0FDD120A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{0C7C60AD-6D57-4CED-BA13-627176103B4E}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6547284-605F-4CAA-BA47-43CD3038B4E8}">
-          <x14:formula1>
-            <xm:f>Contacts!$F$2:$F$2000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:D8 G16:I16 G8:I8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756C853D-B977-4F0D-854F-8D895BDC5AEF}">
-  <dimension ref="A1:Q200"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="str">
-        <f>A6</f>
-        <v>PURCHASE ORDER NUMBER:</v>
-      </c>
-      <c r="B1" s="15" t="str">
-        <f>A8</f>
-        <v>To:</v>
-      </c>
-      <c r="C1" s="15" t="str">
-        <f>A20</f>
-        <v>Delivery Required By:</v>
-      </c>
-      <c r="D1" s="15" t="str">
-        <f>H39</f>
-        <v>GRAND TOTAL:</v>
-      </c>
-      <c r="E1" s="15" t="str">
-        <f>A51</f>
-        <v>Date of Order:</v>
-      </c>
-      <c r="F1" s="15" t="str">
-        <f>H42</f>
-        <v>Cost Code:</v>
-      </c>
-      <c r="G1" s="15" t="str">
-        <f>F42</f>
-        <v>Attachments:</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="15" t="str">
-        <f>A50</f>
-        <v>Date Signed:</v>
-      </c>
-      <c r="N1" s="15" t="str">
-        <f>A47</f>
-        <v>Acknowledged By:</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="str">
-        <f>B8</f>
-        <v>Example Supplier/Vendor</v>
-      </c>
-      <c r="C2" s="18">
-        <f>C20</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <f>J39</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <f>D51</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <f>I42</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <f>G42</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="162" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="165" t="str">
-        <f>Contacts!L4</f>
-        <v>1234 Construction Lane</v>
-      </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="166" t="str">
-        <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="171" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="128" t="str">
-        <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
-        <v>440 North Industrial Drive</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="128" t="str">
-        <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
-        <v>101 Enterprise Dr</v>
-      </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="128" t="str">
-        <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="128" t="str">
-        <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, Illinois 62523</v>
-      </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="128" t="str">
-        <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
-        <v>Michael Jordan</v>
-      </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="172" t="str">
-        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
-        <v>(555) 555-1733</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="172" t="str">
-        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
-        <v>(555) 555-9790</v>
-      </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="171" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="130" t="str">
-        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
-        <v>mjordan@examplesupplier.com</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="128" t="str">
-        <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
-        <v>1234 Construction Lane</v>
-      </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="128" t="str">
-        <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="131" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="105"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="157" t="str">
-        <f>Contacts!F5</f>
-        <v xml:space="preserve"> Project Name</v>
-      </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="109" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="160" t="str">
-        <f>Contacts!F6</f>
-        <v xml:space="preserve"> A/E / Developer</v>
-      </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57">
-        <f t="shared" ref="J27:J33" si="0">H27*I27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="32"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48">
-        <f>SUM(J27:J33)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="67">
-        <f>SUM(J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="F43" s="143"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="149" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="153" t="str">
-        <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
-        <v>Your Name</v>
-      </c>
-      <c r="I47" s="154"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="133" t="str">
-        <f>B8</f>
-        <v>Example Supplier/Vendor</v>
-      </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="135" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="G48" s="136"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="139" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="140"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="125"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="Q75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="Q79" s="10"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="Q86" s="10"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="Q87" s="10"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="Q89" s="10"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="Q90" s="10"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="Q91" s="10"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="Q92" s="10"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="Q93" s="10"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="Q94" s="10"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="Q95" s="10"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="Q96" s="10"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="Q98" s="10"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="Q99" s="10"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
-      <c r="Q100" s="10"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
-      <c r="Q101" s="10"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A102" s="9"/>
-      <c r="Q102" s="10"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A103" s="9"/>
-      <c r="Q103" s="10"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A104" s="9"/>
-      <c r="Q104" s="10"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" s="9"/>
-      <c r="Q105" s="10"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A106" s="9"/>
-      <c r="Q106" s="10"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A107" s="9"/>
-      <c r="Q107" s="10"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A108" s="9"/>
-      <c r="Q108" s="10"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A109" s="9"/>
-      <c r="Q109" s="10"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A110" s="9"/>
-      <c r="Q110" s="10"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A111" s="9"/>
-      <c r="Q111" s="10"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A112" s="9"/>
-      <c r="Q112" s="10"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A113" s="9"/>
-      <c r="Q113" s="10"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A114" s="9"/>
-      <c r="Q114" s="10"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A115" s="9"/>
-      <c r="Q115" s="10"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A116" s="9"/>
-      <c r="Q116" s="10"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A117" s="9"/>
-      <c r="Q117" s="10"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A118" s="9"/>
-      <c r="Q118" s="10"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A119" s="9"/>
-      <c r="Q119" s="10"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A120" s="9"/>
-      <c r="Q120" s="10"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A121" s="9"/>
-      <c r="Q121" s="10"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A122" s="9"/>
-      <c r="Q122" s="10"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A123" s="9"/>
-      <c r="Q123" s="10"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A124" s="9"/>
-      <c r="Q124" s="10"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A125" s="9"/>
-      <c r="Q125" s="10"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A126" s="9"/>
-      <c r="Q126" s="10"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A127" s="9"/>
-      <c r="Q127" s="10"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A128" s="9"/>
-      <c r="Q128" s="10"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A129" s="9"/>
-      <c r="Q129" s="10"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A130" s="9"/>
-      <c r="Q130" s="10"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A131" s="9"/>
-      <c r="Q131" s="10"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A132" s="9"/>
-      <c r="Q132" s="10"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A133" s="9"/>
-      <c r="Q133" s="10"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A134" s="9"/>
-      <c r="Q134" s="10"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A135" s="9"/>
-      <c r="Q135" s="10"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A136" s="9"/>
-      <c r="Q136" s="10"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A137" s="9"/>
-      <c r="Q137" s="10"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A138" s="9"/>
-      <c r="Q138" s="10"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A139" s="9"/>
-      <c r="Q139" s="10"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A140" s="9"/>
-      <c r="Q140" s="10"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A141" s="9"/>
-      <c r="Q141" s="10"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A142" s="9"/>
-      <c r="Q142" s="10"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A143" s="9"/>
-      <c r="Q143" s="10"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A144" s="9"/>
-      <c r="Q144" s="10"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A145" s="9"/>
-      <c r="Q145" s="10"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A146" s="9"/>
-      <c r="Q146" s="10"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A147" s="9"/>
-      <c r="Q147" s="10"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A148" s="9"/>
-      <c r="Q148" s="10"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A149" s="9"/>
-      <c r="Q149" s="10"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A150" s="9"/>
-      <c r="Q150" s="10"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A151" s="9"/>
-      <c r="Q151" s="10"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A152" s="9"/>
-      <c r="Q152" s="10"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A153" s="9"/>
-      <c r="Q153" s="10"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A154" s="9"/>
-      <c r="Q154" s="10"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A155" s="9"/>
-      <c r="Q155" s="10"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A156" s="9"/>
-      <c r="Q156" s="10"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A157" s="9"/>
-      <c r="Q157" s="10"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A158" s="9"/>
-      <c r="Q158" s="10"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A159" s="9"/>
-      <c r="Q159" s="10"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A160" s="9"/>
-      <c r="Q160" s="10"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A161" s="9"/>
-      <c r="Q161" s="10"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A162" s="9"/>
-      <c r="Q162" s="10"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A163" s="9"/>
-      <c r="Q163" s="10"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A164" s="9"/>
-      <c r="Q164" s="10"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A165" s="9"/>
-      <c r="Q165" s="10"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A166" s="9"/>
-      <c r="Q166" s="10"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A167" s="9"/>
-      <c r="Q167" s="10"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A168" s="9"/>
-      <c r="Q168" s="10"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A169" s="9"/>
-      <c r="Q169" s="10"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A170" s="9"/>
-      <c r="Q170" s="10"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A171" s="9"/>
-      <c r="Q171" s="10"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A172" s="9"/>
-      <c r="Q172" s="10"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A173" s="9"/>
-      <c r="Q173" s="10"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A174" s="9"/>
-      <c r="Q174" s="10"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A175" s="9"/>
-      <c r="Q175" s="10"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A176" s="9"/>
-      <c r="Q176" s="10"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A177" s="9"/>
-      <c r="Q177" s="10"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A178" s="9"/>
-      <c r="Q178" s="10"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A179" s="9"/>
-      <c r="Q179" s="10"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A180" s="9"/>
-      <c r="Q180" s="10"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A181" s="9"/>
-      <c r="Q181" s="10"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A182" s="9"/>
-      <c r="Q182" s="10"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A183" s="9"/>
-      <c r="Q183" s="10"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A184" s="9"/>
-      <c r="Q184" s="10"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A185" s="9"/>
-      <c r="Q185" s="10"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A186" s="9"/>
-      <c r="Q186" s="10"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A187" s="9"/>
-      <c r="Q187" s="10"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A188" s="9"/>
-      <c r="Q188" s="10"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A189" s="9"/>
-      <c r="Q189" s="10"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A190" s="9"/>
-      <c r="Q190" s="10"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A191" s="9"/>
-      <c r="Q191" s="10"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A192" s="9"/>
-      <c r="Q192" s="10"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A193" s="9"/>
-      <c r="Q193" s="10"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A194" s="9"/>
-      <c r="Q194" s="10"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A195" s="9"/>
-      <c r="Q195" s="10"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A196" s="9"/>
-      <c r="Q196" s="10"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A197" s="9"/>
-      <c r="Q197" s="10"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A198" s="9"/>
-      <c r="Q198" s="10"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A199" s="9"/>
-      <c r="Q199" s="10"/>
-    </row>
-    <row r="200" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="11"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="12"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
-      <c r="O200" s="12"/>
-      <c r="P200" s="12"/>
-      <c r="Q200" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A20:B20"/>
@@ -58585,36 +58510,13 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{8ACE7671-8E0C-4D4C-8C0B-CA24DEBA9689}"/>
@@ -58669,16 +58571,16 @@
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
       <c r="M1" s="3" t="str">
         <f>Input!M1</f>
         <v>Date Signed:</v>
@@ -58723,19 +58625,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="162" t="e">
+      <c r="A3" s="106" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,36,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
       <c r="K3" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,46,FALSE)</f>
         <v>#N/A</v>
@@ -58770,22 +58672,22 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,53,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B4" s="165" t="e">
+      <c r="B4" s="109" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,54,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,57,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="166" t="e">
+      <c r="F4" s="111" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,58,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,61,FALSE)</f>
         <v>#N/A</v>
@@ -58894,12 +58796,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="167" t="e">
+      <c r="A6" s="112" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,87,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="29" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,90,FALSE)</f>
         <v>#N/A</v>
@@ -58908,12 +58810,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,91,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="169" t="e">
+      <c r="F6" s="114" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,92,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="31" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,95,FALSE)</f>
         <v>#N/A</v>
@@ -59026,12 +58928,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,121,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B8" s="171" t="e">
+      <c r="B8" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,122,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
       <c r="E8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,125,FALSE)</f>
         <v>#N/A</v>
@@ -59040,12 +58942,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,126,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="171" t="e">
+      <c r="G8" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,127,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,130,FALSE)</f>
         <v>#N/A</v>
@@ -59084,12 +58986,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="128" t="e">
+      <c r="B9" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,139,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,142,FALSE)</f>
         <v>#N/A</v>
@@ -59098,12 +59000,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="128" t="e">
+      <c r="G9" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,144,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,147,FALSE)</f>
         <v>#N/A</v>
@@ -59142,12 +59044,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="128" t="e">
+      <c r="B10" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,156,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,159,FALSE)</f>
         <v>#N/A</v>
@@ -59156,12 +59058,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="128" t="e">
+      <c r="G10" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,161,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
       <c r="J10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,164,FALSE)</f>
         <v>#N/A</v>
@@ -59270,12 +59172,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="128" t="e">
+      <c r="B12" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,190,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,193,FALSE)</f>
         <v>#N/A</v>
@@ -59474,11 +59376,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,240,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B15" s="172" t="e">
+      <c r="B15" s="117" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,241,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,243,FALSE)</f>
         <v>#N/A</v>
@@ -59541,11 +59443,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,257,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="172" t="e">
+      <c r="B16" s="117" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,258,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,260,FALSE)</f>
         <v>#N/A</v>
@@ -59558,12 +59460,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,262,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="171" t="e">
+      <c r="G16" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,263,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,266,FALSE)</f>
         <v>#N/A</v>
@@ -59602,12 +59504,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,274,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="130" t="e">
+      <c r="B17" s="153" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,275,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,278,FALSE)</f>
         <v>#N/A</v>
@@ -59616,12 +59518,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,279,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="128" t="e">
+      <c r="G17" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,280,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,283,FALSE)</f>
         <v>#N/A</v>
@@ -59660,12 +59562,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,291,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B18" s="130" t="e">
+      <c r="B18" s="153" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,292,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,295,FALSE)</f>
         <v>#N/A</v>
@@ -59674,12 +59576,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,296,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="128" t="e">
+      <c r="G18" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,297,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
       <c r="J18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,300,FALSE)</f>
         <v>#N/A</v>
@@ -59784,11 +59686,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="131" t="e">
+      <c r="A20" s="154" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,325,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="155"/>
       <c r="C20" s="34" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,327,FALSE)</f>
         <v>#N/A</v>
@@ -59801,11 +59703,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,329,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="132" t="e">
+      <c r="F20" s="156" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,330,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="107"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="39" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,332,FALSE)</f>
         <v>#N/A</v>
@@ -59848,19 +59750,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="105" t="e">
+      <c r="A21" s="166" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="157"/>
       <c r="K21" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,352,FALSE)</f>
         <v>#N/A</v>
@@ -59891,16 +59793,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="108" t="e">
+      <c r="A22" s="167" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,359,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="40" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,366,FALSE)</f>
         <v>#N/A</v>
@@ -59947,15 +59849,15 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,376,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B23" s="157" t="e">
+      <c r="B23" s="123" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,377,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="43" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,383,FALSE)</f>
         <v>#N/A</v>
@@ -59998,16 +59900,16 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="109" t="e">
+      <c r="A24" s="168" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,393,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="169"/>
       <c r="H24" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,400,FALSE)</f>
         <v>#N/A</v>
@@ -60050,12 +59952,12 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="160" t="e">
+      <c r="A25" s="126" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,410,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="49" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,413,FALSE)</f>
         <v>#N/A</v>
@@ -60114,16 +60016,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="112" t="e">
+      <c r="A26" s="170" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,427,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,434,FALSE)</f>
         <v>#N/A</v>
@@ -60166,16 +60068,16 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="116" t="e">
+      <c r="A27" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,444,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,451,FALSE)</f>
         <v>#N/A</v>
@@ -60218,16 +60120,16 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="116" t="e">
+      <c r="A28" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,461,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
       <c r="H28" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,468,FALSE)</f>
         <v>#N/A</v>
@@ -60270,16 +60172,16 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="116" t="e">
+      <c r="A29" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,478,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
       <c r="H29" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,485,FALSE)</f>
         <v>#N/A</v>
@@ -60322,16 +60224,16 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="116" t="e">
+      <c r="A30" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,495,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,502,FALSE)</f>
         <v>#N/A</v>
@@ -60374,16 +60276,16 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="116" t="e">
+      <c r="A31" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,519,FALSE)</f>
         <v>#N/A</v>
@@ -60426,16 +60328,16 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="116" t="e">
+      <c r="A32" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
       <c r="H32" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,536,FALSE)</f>
         <v>#N/A</v>
@@ -60478,16 +60380,16 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="116" t="e">
+      <c r="A33" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,553,FALSE)</f>
         <v>#N/A</v>
@@ -60530,16 +60432,16 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="118" t="e">
+      <c r="A34" s="171" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="120"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="172"/>
       <c r="H34" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,570,FALSE)</f>
         <v>#N/A</v>
@@ -60722,11 +60624,11 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="115" t="e">
+      <c r="A37" s="163" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="110"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,616,FALSE)</f>
         <v>#N/A</v>
@@ -60999,19 +60901,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="149" t="e">
+      <c r="A41" s="118" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,682,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B41" s="150"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="155"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="119"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="121"/>
       <c r="K41" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,692,FALSE)</f>
         <v>#N/A</v>
@@ -61074,11 +60976,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,706,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I42" s="156" t="e">
+      <c r="I42" s="122" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,707,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="156"/>
+      <c r="J42" s="122"/>
       <c r="K42" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,709,FALSE)</f>
         <v>#N/A</v>
@@ -61109,22 +61011,22 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="141" t="e">
+      <c r="A43" s="132" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143" t="e">
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="133" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,720,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="143"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="136"/>
       <c r="K43" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,726,FALSE)</f>
         <v>#N/A</v>
@@ -61155,19 +61057,19 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="146" t="e">
+      <c r="A44" s="137" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,733,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="148"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="139"/>
       <c r="K44" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,743,FALSE)</f>
         <v>#N/A</v>
@@ -61198,19 +61100,19 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="149" t="e">
+      <c r="A45" s="118" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="150"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="151"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="140"/>
       <c r="K45" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,760,FALSE)</f>
         <v>#N/A</v>
@@ -61311,11 +61213,11 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="152" t="e">
+      <c r="A47" s="141" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="142"/>
       <c r="C47" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,786,FALSE)</f>
         <v>#N/A</v>
@@ -61336,11 +61238,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,790,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="153" t="e">
+      <c r="H47" s="143" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,791,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="154"/>
+      <c r="I47" s="144"/>
       <c r="J47" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,793,FALSE)</f>
         <v>#N/A</v>
@@ -61379,23 +61281,23 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,801,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B48" s="133" t="e">
+      <c r="B48" s="158" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,802,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="135" t="e">
+      <c r="C48" s="159"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="160" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,806,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="136"/>
-      <c r="H48" s="132" t="e">
+      <c r="G48" s="161"/>
+      <c r="H48" s="156" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,808,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I48" s="106"/>
+      <c r="I48" s="162"/>
       <c r="J48" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,810,FALSE)</f>
         <v>#N/A</v>
@@ -61430,11 +61332,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="115" t="e">
+      <c r="A49" s="163" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,818,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B49" s="110"/>
+      <c r="B49" s="142"/>
       <c r="C49" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,820,FALSE)</f>
         <v>#N/A</v>
@@ -61447,13 +61349,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,822,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="137" t="e">
+      <c r="F49" s="161"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="164" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,825,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="138"/>
+      <c r="I49" s="165"/>
       <c r="J49" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,827,FALSE)</f>
         <v>#N/A</v>
@@ -61488,11 +61390,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="115" t="e">
+      <c r="A50" s="163" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,835,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B50" s="110"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,837,FALSE)</f>
         <v>#N/A</v>
@@ -61513,11 +61415,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,841,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="139" t="e">
+      <c r="H50" s="130" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,842,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="140"/>
+      <c r="I50" s="131"/>
       <c r="J50" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,844,FALSE)</f>
         <v>#N/A</v>
@@ -61552,11 +61454,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="121" t="e">
+      <c r="A51" s="145" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,852,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B51" s="113"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="18" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,854,FALSE)</f>
         <v>#N/A</v>
@@ -61619,19 +61521,19 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="122" t="e">
+      <c r="A52" s="146" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,869,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="148"/>
       <c r="K52" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,879,FALSE)</f>
         <v>#N/A</v>
@@ -61662,16 +61564,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="125"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
+      <c r="A53" s="149"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="151"/>
       <c r="K53" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,896,FALSE)</f>
         <v>#N/A</v>
@@ -71993,23 +71895,30 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A25:C25"/>
@@ -72024,30 +71933,23 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{B63F09C6-F7F5-441F-B09E-39A426A0CE44}"/>
@@ -72121,8 +72023,8 @@
       <c r="D3" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
@@ -72138,7 +72040,7 @@
       </c>
       <c r="B5" s="80">
         <f ca="1">TODAY()</f>
-        <v>45640</v>
+        <v>45656</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="77"/>

--- a/po.xlsx
+++ b/po.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffed9c0cf3f584e6/Documents/DataMate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEA3DE50-0C29-4BAC-978F-60555C563580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB1CCE4-8FAE-44DE-A50A-D482F038E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,7 +1550,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
@@ -1754,57 +1754,21 @@
     <xf numFmtId="165" fontId="45" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1813,36 +1777,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1869,14 +1811,15 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1887,26 +1830,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,6 +1928,8 @@
     <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -54830,10 +54832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D337F5-37CD-461F-A905-05F18A1AF2C3}">
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54851,87 +54853,54 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="106" t="str">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+    </row>
+    <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
+      <c r="A3" s="162" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="109" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="165" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="111" t="str">
-        <f>VLOOKUP(A1,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A1,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A1,Contacts!C3:R2001, 13, FALSE)</f>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="166" t="str">
+        <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -54940,16 +54909,16 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="30"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -54957,24 +54926,22 @@
       <c r="O5" s="24"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
       <c r="E6" s="30"/>
-      <c r="F6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
+      <c r="F6" s="169" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
@@ -54985,20 +54952,14 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
-      <c r="B7" s="105" t="str">
-        <f>VLOOKUP(B6,Contacts!C3:R2001,10,FALSE)</f>
-        <v>440 North Industrial Drive</v>
-      </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="30"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="105" t="str">
-        <f>VLOOKUP(G6,Contacts!C3:W2001,10,FALSE)</f>
-        <v>101 Enterprise Dr</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="30"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -55008,21 +54969,23 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="105" t="str">
-        <f>VLOOKUP(B6,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B6,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B6,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
+      <c r="A8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="105" t="str">
-        <f>VLOOKUP(G6,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G6,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G6,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, Illinois 62523</v>
-      </c>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
+      <c r="F8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -55033,14 +54996,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="128" t="str">
+        <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
+        <v>440 North Industrial Drive</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="128" t="str">
+        <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
+        <v>101 Enterprise Dr</v>
+      </c>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -55050,20 +55019,21 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="105" t="str">
-        <f>VLOOKUP(B6,Contacts!$C$3:$R2001,2,FALSE)</f>
-        <v>Michael Jordan</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="128" t="str">
+        <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="128" t="str">
+        <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, Illinois 62523</v>
+      </c>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -55074,17 +55044,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="36"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="30"/>
       <c r="K11" s="24"/>
@@ -55095,16 +55061,19 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="128" t="str">
+        <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
+        <v>Michael Jordan</v>
+      </c>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="36"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="30"/>
       <c r="K12" s="24"/>
@@ -55115,21 +55084,18 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="117" t="str">
-        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
-        <v>(555) 555-1733</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="36"/>
       <c r="I13" s="24"/>
       <c r="J13" s="30"/>
       <c r="K13" s="24"/>
@@ -55140,22 +55106,17 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="117" t="str">
-        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
-        <v>(555) 555-9790</v>
-      </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
+      <c r="G14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="30"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -55166,22 +55127,21 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="153" t="str">
-        <f>VLOOKUP(B6,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
-        <v>mjordan@examplesupplier.com</v>
-      </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="172" t="str">
+        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
+        <v>(555) 555-1733</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="105" t="str">
-        <f>VLOOKUP(G14,Contacts!C3:W2009,10,FALSE)</f>
-        <v>1234 Construction Lane</v>
-      </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
+      <c r="F15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="30"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -55192,21 +55152,21 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="172" t="str">
+        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
+        <v>(555) 555-9790</v>
+      </c>
+      <c r="C16" s="128"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="105" t="str">
-        <f>VLOOKUP(G14,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G14,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G14,Contacts!C3:R2001, 13, FALSE)</f>
-        <v>Springfield, IL 62523</v>
-      </c>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
+      <c r="G16" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -55216,15 +55176,23 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="130" t="str">
+        <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
+        <v>mjordan@examplesupplier.com</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="128" t="str">
+        <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
+        <v>1234 Construction Lane</v>
+      </c>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -55234,26 +55202,23 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="154" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="34" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="128" t="str">
+        <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
+        <v>Springfield, IL 62523</v>
+      </c>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -55261,17 +55226,17 @@
       <c r="O18" s="24"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="166"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="157"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="32"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -55280,23 +55245,25 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="167" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>31</v>
+      <c r="A20" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="107"/>
+      <c r="H20" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -55306,20 +55273,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -55328,18 +55291,24 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="A22" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>31</v>
+      </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -55347,22 +55316,21 @@
       <c r="O22" s="24"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="126" t="str">
-        <f>Contacts!F6</f>
-        <v xml:space="preserve"> A/E / Developer</v>
-      </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+    <row r="23" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -55371,15 +55339,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="170" t="s">
-        <v>36</v>
+      <c r="A24" s="109" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="110"/>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
       <c r="F24" s="110"/>
-      <c r="G24" s="155"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -55391,19 +55359,21 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57">
-        <f t="shared" ref="J25:J31" si="0">H25*I25</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="160" t="str">
+        <f>Contacts!F6</f>
+        <v xml:space="preserve"> A/E / Developer</v>
+      </c>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -55412,19 +55382,18 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A26" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
@@ -55433,17 +55402,17 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J27:J33" si="0">H27*I27</f>
         <v>0</v>
       </c>
       <c r="K27" s="24"/>
@@ -55454,13 +55423,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -55475,13 +55444,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -55496,13 +55465,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -55517,13 +55486,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -55538,16 +55507,19 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="171"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="59"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -55556,16 +55528,19 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="59"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -55574,21 +55549,16 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="32"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="36" t="s">
-        <v>37</v>
-      </c>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
-      <c r="J34" s="48">
-        <f>SUM(J25:J31)</f>
-        <v>0</v>
-      </c>
+      <c r="J34" s="59"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
@@ -55597,18 +55567,16 @@
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="163" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="36"/>
       <c r="H35" s="46"/>
       <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
@@ -55617,16 +55585,21 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
+      <c r="G36" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48">
+        <f>SUM(J27:J33)</f>
+        <v>0</v>
+      </c>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
@@ -55634,22 +55607,19 @@
       <c r="O36" s="24"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="110"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67">
-        <f>SUM(J34)</f>
-        <v>0</v>
-      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
       <c r="M37" s="24"/>
@@ -55657,19 +55627,17 @@
       <c r="O37" s="24"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="24"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="30"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="64"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -55677,19 +55645,22 @@
       <c r="O38" s="24"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="121"/>
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="32"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67">
+        <f>SUM(J36)</f>
+        <v>0</v>
+      </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
       <c r="M39" s="24"/>
@@ -55698,22 +55669,18 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
+      <c r="A40" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
       <c r="M40" s="24"/>
@@ -55721,22 +55688,19 @@
       <c r="O40" s="24"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="133" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="136"/>
+    <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="155"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -55744,19 +55708,23 @@
       <c r="O41" s="24"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="139"/>
+    <row r="42" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -55764,19 +55732,22 @@
       <c r="O42" s="24"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
+    <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="F43" s="143"/>
       <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="140"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -55784,17 +55755,19 @@
       <c r="O43" s="24"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="30"/>
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="148"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -55802,24 +55775,19 @@
       <c r="O44" s="24"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A45" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="142"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="143" t="str">
-        <f>VLOOKUP(F46,Contacts!C3:R2001,2,FALSE)</f>
-        <v>Your Name</v>
-      </c>
-      <c r="I45" s="144"/>
-      <c r="J45" s="71"/>
+    <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -55827,24 +55795,16 @@
       <c r="O45" s="24"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="158" t="str">
-        <f>B6</f>
-        <v>Example Supplier/Vendor</v>
-      </c>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="160" t="str">
-        <f>Contacts!F4</f>
-        <v>Your Company Name</v>
-      </c>
-      <c r="G46" s="161"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="162"/>
+    <row r="46" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="32"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="30"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -55853,19 +55813,24 @@
       <c r="O46" s="24"/>
       <c r="Q46" s="10"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="142"/>
+    <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+      <c r="A47" s="152" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="110"/>
       <c r="C47" s="24"/>
-      <c r="D47" s="72"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="30"/>
+      <c r="F47" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="153" t="str">
+        <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
+        <v>Your Name</v>
+      </c>
+      <c r="I47" s="154"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
@@ -55873,20 +55838,24 @@
       <c r="O47" s="24"/>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="163" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="142"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="131"/>
+    <row r="48" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="133" t="str">
+        <f>B8</f>
+        <v>Example Supplier/Vendor</v>
+      </c>
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="135" t="str">
+        <f>Contacts!F4</f>
+        <v>Your Company Name</v>
+      </c>
+      <c r="G48" s="136"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -55896,20 +55865,18 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="145" t="s">
-        <v>52</v>
+      <c r="A49" s="115" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="110"/>
-      <c r="C49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
@@ -55917,19 +55884,21 @@
       <c r="O49" s="24"/>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="147"/>
-      <c r="J50" s="148"/>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="110"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="140"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -55938,16 +55907,20 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="149"/>
-      <c r="B51" s="150"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="151"/>
+      <c r="A51" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="113"/>
+      <c r="C51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="74"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="24"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -55955,12 +55928,42 @@
       <c r="O51" s="24"/>
       <c r="Q51" s="10"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
+    <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
       <c r="Q53" s="10"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -56539,85 +56542,93 @@
       <c r="A197" s="9"/>
       <c r="Q197" s="10"/>
     </row>
-    <row r="198" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="11"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
-      <c r="O198" s="12"/>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="13"/>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A198" s="9"/>
+      <c r="Q198" s="10"/>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A199" s="9"/>
+      <c r="Q199" s="10"/>
+    </row>
+    <row r="200" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="11"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:J51"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G40" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new purchase order number." sqref="D4" xr:uid="{8FB4B432-E7A0-4B7E-B9B1-539F0FDD120A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I4" xr:uid="{0C7C60AD-6D57-4CED-BA13-627176103B4E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{0269E60F-E455-4A2A-B06B-30B07BFBA1D2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a new purchase order number." sqref="D6" xr:uid="{8FB4B432-E7A0-4B7E-B9B1-539F0FDD120A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{0C7C60AD-6D57-4CED-BA13-627176103B4E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -56627,7 +56638,7 @@
           <x14:formula1>
             <xm:f>Contacts!$F$2:$F$2000</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:D6 G14:I14 G6:I6</xm:sqref>
+          <xm:sqref>B8:D8 G16:I16 G8:I8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -56757,19 +56768,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="106" t="str">
+      <c r="A3" s="162" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -56780,19 +56791,19 @@
     </row>
     <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="165" t="str">
         <f>Contacts!L4</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="111" t="str">
+      <c r="F4" s="166" t="str">
         <f>VLOOKUP(A3,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(A3,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(A3,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -56821,18 +56832,18 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
       <c r="K6" s="24"/>
@@ -56864,20 +56875,20 @@
       <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="30"/>
       <c r="F8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
       <c r="J8" s="30"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -56888,20 +56899,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="105" t="str">
+      <c r="B9" s="128" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001,10,FALSE)</f>
         <v>440 North Industrial Drive</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="30"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="105" t="str">
+      <c r="G9" s="128" t="str">
         <f>VLOOKUP(G8,Contacts!C3:W2001,10,FALSE)</f>
         <v>101 Enterprise Dr</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="30"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -56912,20 +56923,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
-      <c r="B10" s="105" t="str">
+      <c r="B10" s="128" t="str">
         <f>VLOOKUP(B8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(B8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(B8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="30"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="105" t="str">
+      <c r="G10" s="128" t="str">
         <f>VLOOKUP(G8,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G8,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G8,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, Illinois 62523</v>
       </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
       <c r="J10" s="30"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -56956,12 +56967,12 @@
       <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="105" t="str">
+      <c r="B12" s="128" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$R2001,2,FALSE)</f>
         <v>Michael Jordan</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -57021,11 +57032,11 @@
       <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="117" t="str">
+      <c r="B15" s="172" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,8,FALSE)</f>
         <v>(555) 555-1733</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="35"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24" t="s">
@@ -57046,19 +57057,19 @@
       <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="117" t="str">
+      <c r="B16" s="172" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,9,FALSE)</f>
         <v>(555) 555-9790</v>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="35"/>
       <c r="E16" s="30"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
       <c r="J16" s="30"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -57071,20 +57082,20 @@
       <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="153" t="str">
+      <c r="B17" s="130" t="str">
         <f>VLOOKUP(B8,Contacts!$C$3:$CQ$4044,16,FALSE)</f>
         <v>mjordan@examplesupplier.com</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="30"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="105" t="str">
+      <c r="G17" s="128" t="str">
         <f>VLOOKUP(G16,Contacts!C3:W2009,10,FALSE)</f>
         <v>1234 Construction Lane</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="30"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -57097,19 +57108,19 @@
       <c r="A18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="105" t="str">
+      <c r="G18" s="128" t="str">
         <f>VLOOKUP(G16,Contacts!C3:R2001, 11, FALSE) &amp; ", " &amp; VLOOKUP(G16,Contacts!C3:R2001, 12, FALSE) &amp; " " &amp; VLOOKUP(G16,Contacts!C3:R2001, 13, FALSE)</f>
         <v>Springfield, IL 62523</v>
       </c>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="30"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -57137,19 +57148,19 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="155"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="34"/>
       <c r="D20" s="24"/>
       <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="156" t="s">
+      <c r="F20" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="157"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="39" t="s">
         <v>26</v>
       </c>
@@ -57165,16 +57176,16 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="166"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="157"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -57183,15 +57194,15 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="40" t="s">
         <v>29</v>
       </c>
@@ -57212,15 +57223,15 @@
       <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="123" t="str">
+      <c r="B23" s="157" t="str">
         <f>Contacts!F5</f>
         <v xml:space="preserve"> Project Name</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="125"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="43"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
@@ -57232,15 +57243,15 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="46"/>
       <c r="I24" s="47"/>
       <c r="J24" s="48"/>
@@ -57252,12 +57263,12 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="126" t="str">
+      <c r="A25" s="160" t="str">
         <f>Contacts!F6</f>
         <v xml:space="preserve"> A/E / Developer</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -57275,15 +57286,15 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="170" t="s">
+      <c r="A26" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="155"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="46"/>
       <c r="I26" s="47"/>
       <c r="J26" s="48"/>
@@ -57295,13 +57306,13 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="57">
@@ -57316,13 +57327,13 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="57">
@@ -57337,13 +57348,13 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="57">
@@ -57358,13 +57369,13 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="57">
@@ -57379,13 +57390,13 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="57">
@@ -57400,13 +57411,13 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="57">
@@ -57421,13 +57432,13 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="57">
@@ -57442,13 +57453,13 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="171"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="172"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="46"/>
       <c r="I34" s="47"/>
       <c r="J34" s="59"/>
@@ -57501,10 +57512,10 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="142"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -57582,18 +57593,18 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="155"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
       <c r="M41" s="24"/>
@@ -57616,8 +57627,8 @@
       <c r="H42" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -57626,21 +57637,21 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="133" t="str">
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="136"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
@@ -57649,18 +57660,18 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="139"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="148"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="M44" s="24"/>
@@ -57669,18 +57680,18 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="140"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -57707,10 +57718,10 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="141" t="s">
+      <c r="A47" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="142"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24"/>
       <c r="D47" s="18"/>
       <c r="E47" s="24"/>
@@ -57718,11 +57729,11 @@
         <v>47</v>
       </c>
       <c r="G47" s="24"/>
-      <c r="H47" s="143" t="str">
+      <c r="H47" s="153" t="str">
         <f>VLOOKUP(F48,Contacts!C3:R2001,2,FALSE)</f>
         <v>Your Name</v>
       </c>
-      <c r="I47" s="144"/>
+      <c r="I47" s="154"/>
       <c r="J47" s="71"/>
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
@@ -57735,20 +57746,20 @@
       <c r="A48" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="158" t="str">
+      <c r="B48" s="133" t="str">
         <f>B8</f>
         <v>Example Supplier/Vendor</v>
       </c>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="160" t="str">
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="135" t="str">
         <f>Contacts!F4</f>
         <v>Your Company Name</v>
       </c>
-      <c r="G48" s="161"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="162"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="30"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -57758,17 +57769,17 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="163" t="s">
+      <c r="A49" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="142"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="24"/>
       <c r="D49" s="72"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="165"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
       <c r="J49" s="30"/>
       <c r="K49" s="24"/>
       <c r="L49" s="24"/>
@@ -57778,19 +57789,19 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="163" t="s">
+      <c r="A50" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="142"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="24"/>
       <c r="D50" s="73"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="130" t="s">
+      <c r="H50" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="131"/>
+      <c r="I50" s="140"/>
       <c r="J50" s="30"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -57800,10 +57811,10 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="145" t="s">
+      <c r="A51" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="110"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="18" t="s">
         <v>35</v>
       </c>
@@ -57822,18 +57833,18 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="148"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
@@ -57842,16 +57853,16 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="149"/>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="127"/>
       <c r="K53" s="24"/>
       <c r="L53" s="24"/>
       <c r="M53" s="24"/>
@@ -58464,14 +58475,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A52:J53"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A34:G34"/>
@@ -58488,35 +58520,14 @@
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Phase Number" sqref="I6" xr:uid="{8ACE7671-8E0C-4D4C-8C0B-CA24DEBA9689}"/>
@@ -58571,16 +58582,16 @@
         <f>HYPERLINK("https://datamateapp.github.io/Donate%205%20per%20mo.html", "All Apps are free of charge with no ads. Please support DataMateApp and help us grow!")</f>
         <v>All Apps are free of charge with no ads. Please support DataMateApp and help us grow!</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
       <c r="M1" s="3" t="str">
         <f>Input!M1</f>
         <v>Date Signed:</v>
@@ -58625,19 +58636,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="25" x14ac:dyDescent="0.5">
-      <c r="A3" s="106" t="e">
+      <c r="A3" s="162" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,36,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,46,FALSE)</f>
         <v>#N/A</v>
@@ -58672,22 +58683,22 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,53,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B4" s="109" t="e">
+      <c r="B4" s="165" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,54,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,57,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="111" t="e">
+      <c r="F4" s="166" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,58,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="22" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,61,FALSE)</f>
         <v>#N/A</v>
@@ -58796,12 +58807,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="112" t="e">
+      <c r="A6" s="167" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,87,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="29" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,90,FALSE)</f>
         <v>#N/A</v>
@@ -58810,12 +58821,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,91,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="114" t="e">
+      <c r="F6" s="169" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,92,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="31" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,95,FALSE)</f>
         <v>#N/A</v>
@@ -58928,12 +58939,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,121,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B8" s="116" t="e">
+      <c r="B8" s="171" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,122,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,125,FALSE)</f>
         <v>#N/A</v>
@@ -58942,12 +58953,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,126,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="116" t="e">
+      <c r="G8" s="171" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,127,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
       <c r="J8" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,130,FALSE)</f>
         <v>#N/A</v>
@@ -58986,12 +58997,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,138,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B9" s="105" t="e">
+      <c r="B9" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,139,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,142,FALSE)</f>
         <v>#N/A</v>
@@ -59000,12 +59011,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,143,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="105" t="e">
+      <c r="G9" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,144,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
       <c r="J9" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,147,FALSE)</f>
         <v>#N/A</v>
@@ -59044,12 +59055,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,155,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B10" s="105" t="e">
+      <c r="B10" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,156,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,159,FALSE)</f>
         <v>#N/A</v>
@@ -59058,12 +59069,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,160,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="105" t="e">
+      <c r="G10" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,161,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
       <c r="J10" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,164,FALSE)</f>
         <v>#N/A</v>
@@ -59172,12 +59183,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,189,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B12" s="105" t="e">
+      <c r="B12" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,190,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,193,FALSE)</f>
         <v>#N/A</v>
@@ -59376,11 +59387,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,240,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B15" s="117" t="e">
+      <c r="B15" s="172" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,241,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,243,FALSE)</f>
         <v>#N/A</v>
@@ -59443,11 +59454,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,257,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B16" s="117" t="e">
+      <c r="B16" s="172" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,258,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="35" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,260,FALSE)</f>
         <v>#N/A</v>
@@ -59460,12 +59471,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,262,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="116" t="e">
+      <c r="G16" s="171" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,263,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
       <c r="J16" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,266,FALSE)</f>
         <v>#N/A</v>
@@ -59504,12 +59515,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,274,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B17" s="153" t="e">
+      <c r="B17" s="130" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,275,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,278,FALSE)</f>
         <v>#N/A</v>
@@ -59518,12 +59529,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,279,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="105" t="e">
+      <c r="G17" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,280,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
       <c r="J17" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,283,FALSE)</f>
         <v>#N/A</v>
@@ -59562,12 +59573,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,291,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B18" s="153" t="e">
+      <c r="B18" s="130" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,292,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,295,FALSE)</f>
         <v>#N/A</v>
@@ -59576,12 +59587,12 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,296,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="105" t="e">
+      <c r="G18" s="128" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,297,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,300,FALSE)</f>
         <v>#N/A</v>
@@ -59686,11 +59697,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="154" t="e">
+      <c r="A20" s="131" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,325,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="155"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="34" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,327,FALSE)</f>
         <v>#N/A</v>
@@ -59703,11 +59714,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,329,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="156" t="e">
+      <c r="F20" s="132" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,330,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="157"/>
+      <c r="G20" s="107"/>
       <c r="H20" s="39" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,332,FALSE)</f>
         <v>#N/A</v>
@@ -59750,19 +59761,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="166" t="e">
+      <c r="A21" s="105" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,342,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B21" s="162"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="157"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
       <c r="K21" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,352,FALSE)</f>
         <v>#N/A</v>
@@ -59793,16 +59804,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="167" t="e">
+      <c r="A22" s="108" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,359,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="40" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,366,FALSE)</f>
         <v>#N/A</v>
@@ -59849,15 +59860,15 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,376,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B23" s="123" t="e">
+      <c r="B23" s="157" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,377,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="125"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="43" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,383,FALSE)</f>
         <v>#N/A</v>
@@ -59900,16 +59911,16 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="168" t="e">
+      <c r="A24" s="109" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,393,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,400,FALSE)</f>
         <v>#N/A</v>
@@ -59952,12 +59963,12 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="126" t="e">
+      <c r="A25" s="160" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,410,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="49" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,413,FALSE)</f>
         <v>#N/A</v>
@@ -60016,16 +60027,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="170" t="e">
+      <c r="A26" s="112" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,427,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="155"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,434,FALSE)</f>
         <v>#N/A</v>
@@ -60068,16 +60079,16 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="128" t="e">
+      <c r="A27" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,444,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
       <c r="H27" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,451,FALSE)</f>
         <v>#N/A</v>
@@ -60120,16 +60131,16 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="128" t="e">
+      <c r="A28" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,461,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,468,FALSE)</f>
         <v>#N/A</v>
@@ -60172,16 +60183,16 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="128" t="e">
+      <c r="A29" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,478,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,485,FALSE)</f>
         <v>#N/A</v>
@@ -60224,16 +60235,16 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="128" t="e">
+      <c r="A30" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,495,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
       <c r="H30" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,502,FALSE)</f>
         <v>#N/A</v>
@@ -60276,16 +60287,16 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="128" t="e">
+      <c r="A31" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,512,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
       <c r="H31" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,519,FALSE)</f>
         <v>#N/A</v>
@@ -60328,16 +60339,16 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="128" t="e">
+      <c r="A32" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,529,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
       <c r="H32" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,536,FALSE)</f>
         <v>#N/A</v>
@@ -60380,16 +60391,16 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="128" t="e">
+      <c r="A33" s="116" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,546,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
       <c r="H33" s="56" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,553,FALSE)</f>
         <v>#N/A</v>
@@ -60432,16 +60443,16 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="171" t="e">
+      <c r="A34" s="118" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,563,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="172"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="46" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,570,FALSE)</f>
         <v>#N/A</v>
@@ -60624,11 +60635,11 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="e">
+      <c r="A37" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,614,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B37" s="142"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,616,FALSE)</f>
         <v>#N/A</v>
@@ -60901,19 +60912,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="118" t="e">
+      <c r="A41" s="149" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,682,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="121"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="155"/>
       <c r="K41" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,692,FALSE)</f>
         <v>#N/A</v>
@@ -60976,11 +60987,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,706,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I42" s="122" t="e">
+      <c r="I42" s="156" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,707,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="122"/>
+      <c r="J42" s="156"/>
       <c r="K42" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,709,FALSE)</f>
         <v>#N/A</v>
@@ -61011,22 +61022,22 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="132" t="e">
+      <c r="A43" s="141" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,716,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="133" t="e">
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="143" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,720,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="136"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
       <c r="K43" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,726,FALSE)</f>
         <v>#N/A</v>
@@ -61057,19 +61068,19 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="137" t="e">
+      <c r="A44" s="146" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,733,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="139"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="148"/>
       <c r="K44" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,743,FALSE)</f>
         <v>#N/A</v>
@@ -61100,19 +61111,19 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="118" t="e">
+      <c r="A45" s="149" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,750,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="140"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="151"/>
       <c r="K45" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,760,FALSE)</f>
         <v>#N/A</v>
@@ -61213,11 +61224,11 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.5">
-      <c r="A47" s="141" t="e">
+      <c r="A47" s="152" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,784,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B47" s="142"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,786,FALSE)</f>
         <v>#N/A</v>
@@ -61238,11 +61249,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,790,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="143" t="e">
+      <c r="H47" s="153" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,791,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="144"/>
+      <c r="I47" s="154"/>
       <c r="J47" s="71" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,793,FALSE)</f>
         <v>#N/A</v>
@@ -61281,23 +61292,23 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,801,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B48" s="158" t="e">
+      <c r="B48" s="133" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,802,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="159"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="160" t="e">
+      <c r="C48" s="134"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="135" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,806,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="161"/>
-      <c r="H48" s="156" t="e">
+      <c r="G48" s="136"/>
+      <c r="H48" s="132" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,808,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I48" s="162"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,810,FALSE)</f>
         <v>#N/A</v>
@@ -61332,11 +61343,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="163" t="e">
+      <c r="A49" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,818,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B49" s="142"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,820,FALSE)</f>
         <v>#N/A</v>
@@ -61349,13 +61360,13 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,822,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="164" t="e">
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,825,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="165"/>
+      <c r="I49" s="138"/>
       <c r="J49" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,827,FALSE)</f>
         <v>#N/A</v>
@@ -61390,11 +61401,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="163" t="e">
+      <c r="A50" s="115" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,835,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B50" s="142"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="24" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,837,FALSE)</f>
         <v>#N/A</v>
@@ -61415,11 +61426,11 @@
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,841,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="130" t="e">
+      <c r="H50" s="139" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,842,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="131"/>
+      <c r="I50" s="140"/>
       <c r="J50" s="30" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,844,FALSE)</f>
         <v>#N/A</v>
@@ -61454,11 +61465,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="145" t="e">
+      <c r="A51" s="121" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,852,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B51" s="110"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="18" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,854,FALSE)</f>
         <v>#N/A</v>
@@ -61521,19 +61532,19 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="146" t="e">
+      <c r="A52" s="122" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,869,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="148"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="124"/>
       <c r="K52" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,879,FALSE)</f>
         <v>#N/A</v>
@@ -61564,16 +61575,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="149"/>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="151"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="127"/>
       <c r="K53" s="1" t="e">
         <f>VLOOKUP(A1,Data!$A$1:$DZU$1000000,896,FALSE)</f>
         <v>#N/A</v>
@@ -71895,30 +71906,23 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A52:J53"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="A25:C25"/>
@@ -71933,23 +71937,30 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A52:J53"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select this cell and paste the URL of your attachment in the formula bar. File must be stored on One Drive or other web server and shareable." sqref="G42" xr:uid="{B63F09C6-F7F5-441F-B09E-39A426A0CE44}"/>
@@ -72023,8 +72034,8 @@
       <c r="D3" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
@@ -72040,7 +72051,7 @@
       </c>
       <c r="B5" s="80">
         <f ca="1">TODAY()</f>
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="77"/>
